--- a/Symptom_Composition_by_Hypercapnia_Definition.xlsx
+++ b/Symptom_Composition_by_Hypercapnia_Definition.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3551</v>
+        <v>2374</v>
       </c>
       <c r="D2" t="n">
-        <v>16801</v>
+        <v>10746</v>
       </c>
       <c r="E2" t="n">
-        <v>21.14</v>
+        <v>22.09</v>
       </c>
       <c r="F2" t="n">
-        <v>20.52</v>
+        <v>21.31</v>
       </c>
       <c r="G2" t="n">
-        <v>21.75</v>
+        <v>22.88</v>
       </c>
     </row>
     <row r="3">
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2491</v>
+        <v>1580</v>
       </c>
       <c r="D3" t="n">
-        <v>16801</v>
+        <v>10746</v>
       </c>
       <c r="E3" t="n">
-        <v>14.83</v>
+        <v>14.7</v>
       </c>
       <c r="F3" t="n">
-        <v>14.29</v>
+        <v>14.03</v>
       </c>
       <c r="G3" t="n">
-        <v>15.36</v>
+        <v>15.37</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2050</v>
+        <v>1256</v>
       </c>
       <c r="D4" t="n">
-        <v>16801</v>
+        <v>10746</v>
       </c>
       <c r="E4" t="n">
-        <v>12.2</v>
+        <v>11.69</v>
       </c>
       <c r="F4" t="n">
-        <v>11.71</v>
+        <v>11.08</v>
       </c>
       <c r="G4" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="5">
@@ -559,23 +559,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1663</v>
+        <v>1031</v>
       </c>
       <c r="D5" t="n">
-        <v>16801</v>
+        <v>10746</v>
       </c>
       <c r="E5" t="n">
-        <v>9.9</v>
+        <v>9.59</v>
       </c>
       <c r="F5" t="n">
-        <v>9.449999999999999</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>10.35</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="6">
@@ -586,23 +586,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1490</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="n">
-        <v>16801</v>
+        <v>10746</v>
       </c>
       <c r="E6" t="n">
-        <v>8.869999999999999</v>
+        <v>9.31</v>
       </c>
       <c r="F6" t="n">
-        <v>8.44</v>
+        <v>8.76</v>
       </c>
       <c r="G6" t="n">
-        <v>9.300000000000001</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1488</v>
+        <v>954</v>
       </c>
       <c r="D7" t="n">
-        <v>16801</v>
+        <v>10746</v>
       </c>
       <c r="E7" t="n">
-        <v>8.859999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>8.43</v>
+        <v>8.34</v>
       </c>
       <c r="G7" t="n">
-        <v>9.289999999999999</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="8">
@@ -640,23 +640,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1387</v>
+        <v>933</v>
       </c>
       <c r="D8" t="n">
-        <v>16801</v>
+        <v>10746</v>
       </c>
       <c r="E8" t="n">
-        <v>8.26</v>
+        <v>8.68</v>
       </c>
       <c r="F8" t="n">
-        <v>7.84</v>
+        <v>8.15</v>
       </c>
       <c r="G8" t="n">
-        <v>8.67</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>989</v>
+        <v>633</v>
       </c>
       <c r="D9" t="n">
-        <v>16801</v>
+        <v>10746</v>
       </c>
       <c r="E9" t="n">
         <v>5.89</v>
       </c>
       <c r="F9" t="n">
-        <v>5.53</v>
+        <v>5.45</v>
       </c>
       <c r="G9" t="n">
-        <v>6.24</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="10">
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>938</v>
+        <v>519</v>
       </c>
       <c r="D10" t="n">
-        <v>16801</v>
+        <v>10746</v>
       </c>
       <c r="E10" t="n">
-        <v>5.58</v>
+        <v>4.83</v>
       </c>
       <c r="F10" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G10" t="n">
         <v>5.24</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.93</v>
       </c>
     </row>
     <row r="11">
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>449</v>
+        <v>292</v>
       </c>
       <c r="D11" t="n">
-        <v>16801</v>
+        <v>10746</v>
       </c>
       <c r="E11" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="F11" t="n">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="G11" t="n">
-        <v>2.92</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="12">
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="D12" t="n">
-        <v>16801</v>
+        <v>10746</v>
       </c>
       <c r="E12" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="F12" t="n">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="13">
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6086</v>
+        <v>7995</v>
       </c>
       <c r="D24" t="n">
-        <v>27131</v>
+        <v>41069</v>
       </c>
       <c r="E24" t="n">
-        <v>22.43</v>
+        <v>19.47</v>
       </c>
       <c r="F24" t="n">
-        <v>21.94</v>
+        <v>19.08</v>
       </c>
       <c r="G24" t="n">
-        <v>22.93</v>
+        <v>19.85</v>
       </c>
     </row>
     <row r="25">
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3996</v>
+        <v>6562</v>
       </c>
       <c r="D25" t="n">
-        <v>27131</v>
+        <v>41069</v>
       </c>
       <c r="E25" t="n">
-        <v>14.73</v>
+        <v>15.98</v>
       </c>
       <c r="F25" t="n">
-        <v>14.31</v>
+        <v>15.62</v>
       </c>
       <c r="G25" t="n">
-        <v>15.15</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="26">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3789</v>
+        <v>5765</v>
       </c>
       <c r="D26" t="n">
-        <v>27131</v>
+        <v>41069</v>
       </c>
       <c r="E26" t="n">
-        <v>13.97</v>
+        <v>14.04</v>
       </c>
       <c r="F26" t="n">
-        <v>13.55</v>
+        <v>13.7</v>
       </c>
       <c r="G26" t="n">
-        <v>14.38</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="27">
@@ -1157,19 +1157,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2641</v>
+        <v>4159</v>
       </c>
       <c r="D27" t="n">
-        <v>27131</v>
+        <v>41069</v>
       </c>
       <c r="E27" t="n">
-        <v>9.73</v>
+        <v>10.13</v>
       </c>
       <c r="F27" t="n">
-        <v>9.380000000000001</v>
+        <v>9.84</v>
       </c>
       <c r="G27" t="n">
-        <v>10.09</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="28">
@@ -1180,23 +1180,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2081</v>
+        <v>3315</v>
       </c>
       <c r="D28" t="n">
-        <v>27131</v>
+        <v>41069</v>
       </c>
       <c r="E28" t="n">
-        <v>7.67</v>
+        <v>8.07</v>
       </c>
       <c r="F28" t="n">
-        <v>7.35</v>
+        <v>7.81</v>
       </c>
       <c r="G28" t="n">
-        <v>7.99</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="29">
@@ -1207,23 +1207,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1989</v>
+        <v>3197</v>
       </c>
       <c r="D29" t="n">
-        <v>27131</v>
+        <v>41069</v>
       </c>
       <c r="E29" t="n">
-        <v>7.33</v>
+        <v>7.78</v>
       </c>
       <c r="F29" t="n">
-        <v>7.02</v>
+        <v>7.53</v>
       </c>
       <c r="G29" t="n">
-        <v>7.64</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1238,19 +1238,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1961</v>
+        <v>2920</v>
       </c>
       <c r="D30" t="n">
-        <v>27131</v>
+        <v>41069</v>
       </c>
       <c r="E30" t="n">
-        <v>7.23</v>
+        <v>7.11</v>
       </c>
       <c r="F30" t="n">
-        <v>6.92</v>
+        <v>6.86</v>
       </c>
       <c r="G30" t="n">
-        <v>7.54</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="31">
@@ -1261,23 +1261,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1640</v>
+        <v>2586</v>
       </c>
       <c r="D31" t="n">
-        <v>27131</v>
+        <v>41069</v>
       </c>
       <c r="E31" t="n">
-        <v>6.04</v>
+        <v>6.3</v>
       </c>
       <c r="F31" t="n">
-        <v>5.76</v>
+        <v>6.06</v>
       </c>
       <c r="G31" t="n">
-        <v>6.33</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="32">
@@ -1288,23 +1288,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1583</v>
+        <v>2570</v>
       </c>
       <c r="D32" t="n">
-        <v>27131</v>
+        <v>41069</v>
       </c>
       <c r="E32" t="n">
-        <v>5.83</v>
+        <v>6.26</v>
       </c>
       <c r="F32" t="n">
-        <v>5.56</v>
+        <v>6.02</v>
       </c>
       <c r="G32" t="n">
-        <v>6.11</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="33">
@@ -1319,19 +1319,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>705</v>
+        <v>1022</v>
       </c>
       <c r="D33" t="n">
-        <v>27131</v>
+        <v>41069</v>
       </c>
       <c r="E33" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="F33" t="n">
-        <v>2.41</v>
+        <v>2.34</v>
       </c>
       <c r="G33" t="n">
-        <v>2.79</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="34">
@@ -1346,19 +1346,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>660</v>
+        <v>978</v>
       </c>
       <c r="D34" t="n">
-        <v>27131</v>
+        <v>41069</v>
       </c>
       <c r="E34" t="n">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="F34" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="G34" t="n">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="35">
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4461</v>
+        <v>4463</v>
       </c>
       <c r="D35" t="n">
-        <v>17416</v>
+        <v>17543</v>
       </c>
       <c r="E35" t="n">
-        <v>25.61</v>
+        <v>25.44</v>
       </c>
       <c r="F35" t="n">
-        <v>24.97</v>
+        <v>24.8</v>
       </c>
       <c r="G35" t="n">
-        <v>26.26</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="36">
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2587</v>
+        <v>2606</v>
       </c>
       <c r="D36" t="n">
-        <v>17416</v>
+        <v>17543</v>
       </c>
       <c r="E36" t="n">
         <v>14.85</v>
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2446</v>
+        <v>2465</v>
       </c>
       <c r="D37" t="n">
-        <v>17416</v>
+        <v>17543</v>
       </c>
       <c r="E37" t="n">
-        <v>14.04</v>
+        <v>14.05</v>
       </c>
       <c r="F37" t="n">
-        <v>13.53</v>
+        <v>13.54</v>
       </c>
       <c r="G37" t="n">
-        <v>14.56</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="38">
@@ -1454,19 +1454,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="D38" t="n">
-        <v>17416</v>
+        <v>17543</v>
       </c>
       <c r="E38" t="n">
-        <v>9.65</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>9.210000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="G38" t="n">
-        <v>10.09</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="39">
@@ -1481,19 +1481,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1109</v>
+        <v>1127</v>
       </c>
       <c r="D39" t="n">
-        <v>17416</v>
+        <v>17543</v>
       </c>
       <c r="E39" t="n">
-        <v>6.37</v>
+        <v>6.42</v>
       </c>
       <c r="F39" t="n">
-        <v>6.01</v>
+        <v>6.06</v>
       </c>
       <c r="G39" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="40">
@@ -1508,19 +1508,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="D40" t="n">
-        <v>17416</v>
+        <v>17543</v>
       </c>
       <c r="E40" t="n">
-        <v>6.29</v>
+        <v>6.28</v>
       </c>
       <c r="F40" t="n">
-        <v>5.93</v>
+        <v>5.92</v>
       </c>
       <c r="G40" t="n">
-        <v>6.65</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="41">
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D41" t="n">
-        <v>17416</v>
+        <v>17543</v>
       </c>
       <c r="E41" t="n">
-        <v>6.2</v>
+        <v>6.28</v>
       </c>
       <c r="F41" t="n">
-        <v>5.84</v>
+        <v>5.92</v>
       </c>
       <c r="G41" t="n">
-        <v>6.55</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="42">
@@ -1565,16 +1565,16 @@
         <v>1064</v>
       </c>
       <c r="D42" t="n">
-        <v>17416</v>
+        <v>17543</v>
       </c>
       <c r="E42" t="n">
-        <v>6.11</v>
+        <v>6.07</v>
       </c>
       <c r="F42" t="n">
-        <v>5.75</v>
+        <v>5.71</v>
       </c>
       <c r="G42" t="n">
-        <v>6.47</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="43">
@@ -1589,19 +1589,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>966</v>
+        <v>991</v>
       </c>
       <c r="D43" t="n">
-        <v>17416</v>
+        <v>17543</v>
       </c>
       <c r="E43" t="n">
-        <v>5.55</v>
+        <v>5.65</v>
       </c>
       <c r="F43" t="n">
-        <v>5.21</v>
+        <v>5.31</v>
       </c>
       <c r="G43" t="n">
-        <v>5.89</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="44">
@@ -1616,19 +1616,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D44" t="n">
-        <v>17416</v>
+        <v>17543</v>
       </c>
       <c r="E44" t="n">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="F44" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="G44" t="n">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="45">
@@ -1643,19 +1643,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D45" t="n">
-        <v>17416</v>
+        <v>17543</v>
       </c>
       <c r="E45" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="F45" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G45" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_Hypercapnia_Definition.xlsx
+++ b/Symptom_Composition_by_Hypercapnia_Definition.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2374</v>
+        <v>2384</v>
       </c>
       <c r="D2" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="E2" t="n">
-        <v>22.09</v>
+        <v>22.18</v>
       </c>
       <c r="F2" t="n">
-        <v>21.31</v>
+        <v>21.4</v>
       </c>
       <c r="G2" t="n">
-        <v>22.88</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="3">
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1580</v>
+        <v>1595</v>
       </c>
       <c r="D3" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="E3" t="n">
-        <v>14.7</v>
+        <v>14.84</v>
       </c>
       <c r="F3" t="n">
-        <v>14.03</v>
+        <v>14.17</v>
       </c>
       <c r="G3" t="n">
-        <v>15.37</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="D4" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="E4" t="n">
-        <v>11.69</v>
+        <v>11.71</v>
       </c>
       <c r="F4" t="n">
-        <v>11.08</v>
+        <v>11.11</v>
       </c>
       <c r="G4" t="n">
-        <v>12.3</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         <v>1031</v>
       </c>
       <c r="D5" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="E5" t="n">
         <v>9.59</v>
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="D6" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="E6" t="n">
-        <v>9.31</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>8.76</v>
+        <v>8.59</v>
       </c>
       <c r="G6" t="n">
-        <v>9.859999999999999</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="7">
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D7" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="E7" t="n">
-        <v>8.880000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="F7" t="n">
-        <v>8.34</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>9.42</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="D8" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="E8" t="n">
-        <v>8.68</v>
+        <v>8.77</v>
       </c>
       <c r="F8" t="n">
-        <v>8.15</v>
+        <v>8.23</v>
       </c>
       <c r="G8" t="n">
-        <v>9.210000000000001</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D9" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="E9" t="n">
-        <v>5.89</v>
+        <v>5.83</v>
       </c>
       <c r="F9" t="n">
-        <v>5.45</v>
+        <v>5.39</v>
       </c>
       <c r="G9" t="n">
-        <v>6.34</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="10">
@@ -698,16 +698,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D10" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="E10" t="n">
-        <v>4.83</v>
+        <v>4.84</v>
       </c>
       <c r="F10" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="G10" t="n">
         <v>5.24</v>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D11" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="E11" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="F11" t="n">
-        <v>2.41</v>
+        <v>2.35</v>
       </c>
       <c r="G11" t="n">
-        <v>3.02</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="12">
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="E12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="G12" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="13">
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4463</v>
+        <v>4457</v>
       </c>
       <c r="D35" t="n">
-        <v>17543</v>
+        <v>17542</v>
       </c>
       <c r="E35" t="n">
-        <v>25.44</v>
+        <v>25.41</v>
       </c>
       <c r="F35" t="n">
-        <v>24.8</v>
+        <v>24.76</v>
       </c>
       <c r="G35" t="n">
-        <v>26.08</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="36">
@@ -1400,19 +1400,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2606</v>
+        <v>2612</v>
       </c>
       <c r="D36" t="n">
-        <v>17543</v>
+        <v>17542</v>
       </c>
       <c r="E36" t="n">
-        <v>14.85</v>
+        <v>14.89</v>
       </c>
       <c r="F36" t="n">
-        <v>14.33</v>
+        <v>14.36</v>
       </c>
       <c r="G36" t="n">
-        <v>15.38</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="37">
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2465</v>
+        <v>2459</v>
       </c>
       <c r="D37" t="n">
-        <v>17543</v>
+        <v>17542</v>
       </c>
       <c r="E37" t="n">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="F37" t="n">
-        <v>13.54</v>
+        <v>13.5</v>
       </c>
       <c r="G37" t="n">
-        <v>14.57</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="38">
@@ -1454,19 +1454,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="D38" t="n">
-        <v>17543</v>
+        <v>17542</v>
       </c>
       <c r="E38" t="n">
-        <v>9.619999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>9.18</v>
+        <v>9.19</v>
       </c>
       <c r="G38" t="n">
-        <v>10.05</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="39">
@@ -1481,19 +1481,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D39" t="n">
-        <v>17543</v>
+        <v>17542</v>
       </c>
       <c r="E39" t="n">
-        <v>6.42</v>
+        <v>6.41</v>
       </c>
       <c r="F39" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="G39" t="n">
-        <v>6.79</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="40">
@@ -1504,23 +1504,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D40" t="n">
-        <v>17543</v>
+        <v>17542</v>
       </c>
       <c r="E40" t="n">
-        <v>6.28</v>
+        <v>6.3</v>
       </c>
       <c r="F40" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="G40" t="n">
-        <v>6.64</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="41">
@@ -1531,20 +1531,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D41" t="n">
-        <v>17543</v>
+        <v>17542</v>
       </c>
       <c r="E41" t="n">
-        <v>6.28</v>
+        <v>6.27</v>
       </c>
       <c r="F41" t="n">
-        <v>5.92</v>
+        <v>5.91</v>
       </c>
       <c r="G41" t="n">
         <v>6.63</v>
@@ -1562,16 +1562,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D42" t="n">
-        <v>17543</v>
+        <v>17542</v>
       </c>
       <c r="E42" t="n">
         <v>6.07</v>
       </c>
       <c r="F42" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="G42" t="n">
         <v>6.42</v>
@@ -1589,19 +1589,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="D43" t="n">
-        <v>17543</v>
+        <v>17542</v>
       </c>
       <c r="E43" t="n">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="F43" t="n">
-        <v>5.31</v>
+        <v>5.32</v>
       </c>
       <c r="G43" t="n">
-        <v>5.99</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="44">
@@ -1616,19 +1616,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D44" t="n">
-        <v>17543</v>
+        <v>17542</v>
       </c>
       <c r="E44" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="F44" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="G44" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="45">
@@ -1643,19 +1643,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D45" t="n">
-        <v>17543</v>
+        <v>17542</v>
       </c>
       <c r="E45" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="F45" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_Hypercapnia_Definition.xlsx
+++ b/Symptom_Composition_by_Hypercapnia_Definition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,16 +485,16 @@
         <v>2384</v>
       </c>
       <c r="D2" t="n">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="E2" t="n">
         <v>22.18</v>
       </c>
       <c r="F2" t="n">
-        <v>21.4</v>
+        <v>21.39</v>
       </c>
       <c r="G2" t="n">
-        <v>22.97</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +512,7 @@
         <v>1595</v>
       </c>
       <c r="D3" t="n">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="E3" t="n">
         <v>14.84</v>
@@ -539,13 +539,13 @@
         <v>1259</v>
       </c>
       <c r="D4" t="n">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="E4" t="n">
         <v>11.71</v>
       </c>
       <c r="F4" t="n">
-        <v>11.11</v>
+        <v>11.1</v>
       </c>
       <c r="G4" t="n">
         <v>12.32</v>
@@ -566,13 +566,13 @@
         <v>1031</v>
       </c>
       <c r="D5" t="n">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="E5" t="n">
         <v>9.59</v>
       </c>
       <c r="F5" t="n">
-        <v>9.039999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="G5" t="n">
         <v>10.15</v>
@@ -593,7 +593,7 @@
         <v>982</v>
       </c>
       <c r="D6" t="n">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="E6" t="n">
         <v>9.140000000000001</v>
@@ -620,7 +620,7 @@
         <v>950</v>
       </c>
       <c r="D7" t="n">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="E7" t="n">
         <v>8.84</v>
@@ -629,7 +629,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>9.380000000000001</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D8" t="n">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="E8" t="n">
-        <v>8.77</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>8.23</v>
+        <v>8.25</v>
       </c>
       <c r="G8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
         <v>627</v>
       </c>
       <c r="D9" t="n">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="E9" t="n">
         <v>5.83</v>
@@ -701,7 +701,7 @@
         <v>520</v>
       </c>
       <c r="D10" t="n">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="E10" t="n">
         <v>4.84</v>
@@ -728,7 +728,7 @@
         <v>285</v>
       </c>
       <c r="D11" t="n">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="E11" t="n">
         <v>2.65</v>
@@ -755,7 +755,7 @@
         <v>172</v>
       </c>
       <c r="D12" t="n">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="E12" t="n">
         <v>1.6</v>
@@ -1067,7 +1067,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>other_hypercap_threshold</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1076,25 +1076,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7995</v>
+        <v>6879</v>
       </c>
       <c r="D24" t="n">
-        <v>41069</v>
+        <v>36518</v>
       </c>
       <c r="E24" t="n">
-        <v>19.47</v>
+        <v>18.84</v>
       </c>
       <c r="F24" t="n">
-        <v>19.08</v>
+        <v>18.44</v>
       </c>
       <c r="G24" t="n">
-        <v>19.85</v>
+        <v>19.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>other_hypercap_threshold</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1103,25 +1103,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6562</v>
+        <v>5896</v>
       </c>
       <c r="D25" t="n">
-        <v>41069</v>
+        <v>36518</v>
       </c>
       <c r="E25" t="n">
-        <v>15.98</v>
+        <v>16.15</v>
       </c>
       <c r="F25" t="n">
-        <v>15.62</v>
+        <v>15.77</v>
       </c>
       <c r="G25" t="n">
-        <v>16.33</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>other_hypercap_threshold</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5765</v>
+        <v>4926</v>
       </c>
       <c r="D26" t="n">
-        <v>41069</v>
+        <v>36518</v>
       </c>
       <c r="E26" t="n">
-        <v>14.04</v>
+        <v>13.49</v>
       </c>
       <c r="F26" t="n">
-        <v>13.7</v>
+        <v>13.14</v>
       </c>
       <c r="G26" t="n">
-        <v>14.37</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>other_hypercap_threshold</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1157,25 +1157,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4159</v>
+        <v>3774</v>
       </c>
       <c r="D27" t="n">
-        <v>41069</v>
+        <v>36518</v>
       </c>
       <c r="E27" t="n">
-        <v>10.13</v>
+        <v>10.33</v>
       </c>
       <c r="F27" t="n">
-        <v>9.84</v>
+        <v>10.02</v>
       </c>
       <c r="G27" t="n">
-        <v>10.42</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>other_hypercap_threshold</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1184,25 +1184,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3315</v>
+        <v>3069</v>
       </c>
       <c r="D28" t="n">
-        <v>41069</v>
+        <v>36518</v>
       </c>
       <c r="E28" t="n">
-        <v>8.07</v>
+        <v>8.4</v>
       </c>
       <c r="F28" t="n">
-        <v>7.81</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>8.34</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>other_hypercap_threshold</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3197</v>
+        <v>2933</v>
       </c>
       <c r="D29" t="n">
-        <v>41069</v>
+        <v>36518</v>
       </c>
       <c r="E29" t="n">
-        <v>7.78</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>7.53</v>
+        <v>7.75</v>
       </c>
       <c r="G29" t="n">
-        <v>8.039999999999999</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>other_hypercap_threshold</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1238,25 +1238,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2920</v>
+        <v>2760</v>
       </c>
       <c r="D30" t="n">
-        <v>41069</v>
+        <v>36518</v>
       </c>
       <c r="E30" t="n">
-        <v>7.11</v>
+        <v>7.56</v>
       </c>
       <c r="F30" t="n">
-        <v>6.86</v>
+        <v>7.29</v>
       </c>
       <c r="G30" t="n">
-        <v>7.36</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>other_hypercap_threshold</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1265,25 +1265,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2586</v>
+        <v>2289</v>
       </c>
       <c r="D31" t="n">
-        <v>41069</v>
+        <v>36518</v>
       </c>
       <c r="E31" t="n">
-        <v>6.3</v>
+        <v>6.27</v>
       </c>
       <c r="F31" t="n">
-        <v>6.06</v>
+        <v>6.02</v>
       </c>
       <c r="G31" t="n">
-        <v>6.53</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>other_hypercap_threshold</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1292,79 +1292,79 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2570</v>
+        <v>2265</v>
       </c>
       <c r="D32" t="n">
-        <v>41069</v>
+        <v>36518</v>
       </c>
       <c r="E32" t="n">
-        <v>6.26</v>
+        <v>6.2</v>
       </c>
       <c r="F32" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
       <c r="G32" t="n">
-        <v>6.49</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>other_hypercap_threshold</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Symptom – Eye/Ear</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1022</v>
+        <v>879</v>
       </c>
       <c r="D33" t="n">
-        <v>41069</v>
+        <v>36518</v>
       </c>
       <c r="E33" t="n">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="F33" t="n">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="G33" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>other_hypercap_threshold</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Symptom – Eye/Ear</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>978</v>
+        <v>848</v>
       </c>
       <c r="D34" t="n">
-        <v>41069</v>
+        <v>36518</v>
       </c>
       <c r="E34" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="F34" t="n">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="G34" t="n">
-        <v>2.53</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1373,79 +1373,79 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4457</v>
+        <v>7995</v>
       </c>
       <c r="D35" t="n">
-        <v>17542</v>
+        <v>41080</v>
       </c>
       <c r="E35" t="n">
-        <v>25.41</v>
+        <v>19.46</v>
       </c>
       <c r="F35" t="n">
-        <v>24.76</v>
+        <v>19.08</v>
       </c>
       <c r="G35" t="n">
-        <v>26.05</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2612</v>
+        <v>6562</v>
       </c>
       <c r="D36" t="n">
-        <v>17542</v>
+        <v>41080</v>
       </c>
       <c r="E36" t="n">
-        <v>14.89</v>
+        <v>15.97</v>
       </c>
       <c r="F36" t="n">
-        <v>14.36</v>
+        <v>15.62</v>
       </c>
       <c r="G36" t="n">
-        <v>15.42</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2459</v>
+        <v>5765</v>
       </c>
       <c r="D37" t="n">
-        <v>17542</v>
+        <v>41080</v>
       </c>
       <c r="E37" t="n">
-        <v>14.02</v>
+        <v>14.03</v>
       </c>
       <c r="F37" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="G37" t="n">
-        <v>14.53</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1454,79 +1454,79 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1689</v>
+        <v>4159</v>
       </c>
       <c r="D38" t="n">
-        <v>17542</v>
+        <v>41080</v>
       </c>
       <c r="E38" t="n">
-        <v>9.630000000000001</v>
+        <v>10.12</v>
       </c>
       <c r="F38" t="n">
-        <v>9.19</v>
+        <v>9.83</v>
       </c>
       <c r="G38" t="n">
-        <v>10.06</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1124</v>
+        <v>3315</v>
       </c>
       <c r="D39" t="n">
-        <v>17542</v>
+        <v>41080</v>
       </c>
       <c r="E39" t="n">
-        <v>6.41</v>
+        <v>8.07</v>
       </c>
       <c r="F39" t="n">
-        <v>6.05</v>
+        <v>7.81</v>
       </c>
       <c r="G39" t="n">
-        <v>6.77</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1106</v>
+        <v>3208</v>
       </c>
       <c r="D40" t="n">
-        <v>17542</v>
+        <v>41080</v>
       </c>
       <c r="E40" t="n">
-        <v>6.3</v>
+        <v>7.81</v>
       </c>
       <c r="F40" t="n">
-        <v>5.95</v>
+        <v>7.55</v>
       </c>
       <c r="G40" t="n">
-        <v>6.66</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1535,79 +1535,79 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1100</v>
+        <v>2920</v>
       </c>
       <c r="D41" t="n">
-        <v>17542</v>
+        <v>41080</v>
       </c>
       <c r="E41" t="n">
-        <v>6.27</v>
+        <v>7.11</v>
       </c>
       <c r="F41" t="n">
-        <v>5.91</v>
+        <v>6.86</v>
       </c>
       <c r="G41" t="n">
-        <v>6.63</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1065</v>
+        <v>2586</v>
       </c>
       <c r="D42" t="n">
-        <v>17542</v>
+        <v>41080</v>
       </c>
       <c r="E42" t="n">
-        <v>6.07</v>
+        <v>6.3</v>
       </c>
       <c r="F42" t="n">
-        <v>5.72</v>
+        <v>6.06</v>
       </c>
       <c r="G42" t="n">
-        <v>6.42</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>994</v>
+        <v>2570</v>
       </c>
       <c r="D43" t="n">
-        <v>17542</v>
+        <v>41080</v>
       </c>
       <c r="E43" t="n">
-        <v>5.67</v>
+        <v>6.26</v>
       </c>
       <c r="F43" t="n">
-        <v>5.32</v>
+        <v>6.02</v>
       </c>
       <c r="G43" t="n">
-        <v>6.01</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1616,45 +1616,342 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>556</v>
+        <v>1022</v>
       </c>
       <c r="D44" t="n">
-        <v>17542</v>
+        <v>41080</v>
       </c>
       <c r="E44" t="n">
-        <v>3.17</v>
+        <v>2.49</v>
       </c>
       <c r="F44" t="n">
-        <v>2.91</v>
+        <v>2.34</v>
       </c>
       <c r="G44" t="n">
-        <v>3.43</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>pco2_threshold_any</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Symptom – Skin/Hair/Nails</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>978</v>
+      </c>
+      <c r="D45" t="n">
+        <v>41080</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>vbg_hypercap_threshold</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Symptom – Respiratory</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4457</v>
+      </c>
+      <c r="D46" t="n">
+        <v>17548</v>
+      </c>
+      <c r="E46" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="G46" t="n">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Symptom – Digestive</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D47" t="n">
+        <v>17548</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="G47" t="n">
+        <v>15.41</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Symptom – Nervous</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2459</v>
+      </c>
+      <c r="D48" t="n">
+        <v>17548</v>
+      </c>
+      <c r="E48" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Symptom – Circulatory</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1689</v>
+      </c>
+      <c r="D49" t="n">
+        <v>17548</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1130</v>
+      </c>
+      <c r="D50" t="n">
+        <v>17548</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Symptom – General</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1106</v>
+      </c>
+      <c r="D51" t="n">
+        <v>17548</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Injuries &amp; adverse effects</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D52" t="n">
+        <v>17548</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Diseases (patient-stated)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D53" t="n">
+        <v>17548</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Symptom – Genitourinary</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>994</v>
+      </c>
+      <c r="D54" t="n">
+        <v>17548</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Symptom – Eye/Ear</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>556</v>
+      </c>
+      <c r="D55" t="n">
+        <v>17548</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C56" t="n">
         <v>380</v>
       </c>
-      <c r="D45" t="n">
-        <v>17542</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D56" t="n">
+        <v>17548</v>
+      </c>
+      <c r="E56" t="n">
         <v>2.17</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F56" t="n">
         <v>1.95</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G56" t="n">
         <v>2.38</v>
       </c>
     </row>

--- a/Symptom_Composition_by_Hypercapnia_Definition.xlsx
+++ b/Symptom_Composition_by_Hypercapnia_Definition.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2384</v>
+        <v>1482</v>
       </c>
       <c r="D2" t="n">
-        <v>10749</v>
+        <v>4660</v>
       </c>
       <c r="E2" t="n">
-        <v>22.18</v>
+        <v>31.8</v>
       </c>
       <c r="F2" t="n">
-        <v>21.39</v>
+        <v>30.47</v>
       </c>
       <c r="G2" t="n">
-        <v>22.96</v>
+        <v>33.14</v>
       </c>
     </row>
     <row r="3">
@@ -505,23 +505,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1595</v>
+        <v>522</v>
       </c>
       <c r="D3" t="n">
-        <v>10749</v>
+        <v>4660</v>
       </c>
       <c r="E3" t="n">
-        <v>14.84</v>
+        <v>11.2</v>
       </c>
       <c r="F3" t="n">
-        <v>14.17</v>
+        <v>10.3</v>
       </c>
       <c r="G3" t="n">
-        <v>15.51</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="4">
@@ -532,23 +532,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1259</v>
+        <v>493</v>
       </c>
       <c r="D4" t="n">
-        <v>10749</v>
+        <v>4660</v>
       </c>
       <c r="E4" t="n">
-        <v>11.71</v>
+        <v>10.58</v>
       </c>
       <c r="F4" t="n">
-        <v>11.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>12.32</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="5">
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1031</v>
+        <v>464</v>
       </c>
       <c r="D5" t="n">
-        <v>10749</v>
+        <v>4660</v>
       </c>
       <c r="E5" t="n">
-        <v>9.59</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>9.029999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="G5" t="n">
-        <v>10.15</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>982</v>
+        <v>379</v>
       </c>
       <c r="D6" t="n">
-        <v>10749</v>
+        <v>4660</v>
       </c>
       <c r="E6" t="n">
-        <v>9.140000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>8.59</v>
+        <v>7.35</v>
       </c>
       <c r="G6" t="n">
-        <v>9.68</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="7">
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>950</v>
+        <v>365</v>
       </c>
       <c r="D7" t="n">
-        <v>10749</v>
+        <v>4660</v>
       </c>
       <c r="E7" t="n">
-        <v>8.84</v>
+        <v>7.83</v>
       </c>
       <c r="F7" t="n">
-        <v>8.300000000000001</v>
+        <v>7.06</v>
       </c>
       <c r="G7" t="n">
-        <v>9.369999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="8">
@@ -640,23 +640,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>944</v>
+        <v>264</v>
       </c>
       <c r="D8" t="n">
-        <v>10749</v>
+        <v>4660</v>
       </c>
       <c r="E8" t="n">
-        <v>8.779999999999999</v>
+        <v>5.67</v>
       </c>
       <c r="F8" t="n">
-        <v>8.25</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>9.32</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="9">
@@ -667,23 +667,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>627</v>
+        <v>257</v>
       </c>
       <c r="D9" t="n">
-        <v>10749</v>
+        <v>4660</v>
       </c>
       <c r="E9" t="n">
-        <v>5.83</v>
+        <v>5.52</v>
       </c>
       <c r="F9" t="n">
-        <v>5.39</v>
+        <v>4.86</v>
       </c>
       <c r="G9" t="n">
-        <v>6.28</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="10">
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>520</v>
+        <v>234</v>
       </c>
       <c r="D10" t="n">
-        <v>10749</v>
+        <v>4660</v>
       </c>
       <c r="E10" t="n">
-        <v>4.84</v>
+        <v>5.02</v>
       </c>
       <c r="F10" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="G10" t="n">
-        <v>5.24</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="11">
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="D11" t="n">
-        <v>10749</v>
+        <v>4660</v>
       </c>
       <c r="E11" t="n">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="F11" t="n">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.96</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="12">
@@ -748,23 +748,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Symptom – Eye/Ear</t>
+          <t>Abnormal test result</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="D12" t="n">
-        <v>10749</v>
+        <v>4660</v>
       </c>
       <c r="E12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="F12" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="G12" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="13">
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D17" t="n">
         <v>1983</v>
       </c>
       <c r="E17" t="n">
-        <v>5.04</v>
+        <v>4.69</v>
       </c>
       <c r="F17" t="n">
-        <v>4.08</v>
+        <v>3.76</v>
       </c>
       <c r="G17" t="n">
-        <v>6.01</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="18">
@@ -910,23 +910,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" t="n">
         <v>1983</v>
       </c>
       <c r="E18" t="n">
-        <v>4.34</v>
+        <v>4.44</v>
       </c>
       <c r="F18" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="G18" t="n">
-        <v>5.23</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="19">
@@ -937,23 +937,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D19" t="n">
         <v>1983</v>
       </c>
       <c r="E19" t="n">
-        <v>4.19</v>
+        <v>4.34</v>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="G19" t="n">
-        <v>5.07</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="20">
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" t="n">
         <v>1983</v>
       </c>
       <c r="E21" t="n">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>2.41</v>
       </c>
       <c r="G21" t="n">
-        <v>3.89</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="22">
@@ -1045,23 +1045,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Symptom – Eye/Ear</t>
+          <t>Abnormal test result</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
         <v>1983</v>
       </c>
       <c r="E23" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="F23" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="G23" t="n">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="24">
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6879</v>
+        <v>3895</v>
       </c>
       <c r="D24" t="n">
-        <v>36518</v>
+        <v>18509</v>
       </c>
       <c r="E24" t="n">
-        <v>18.84</v>
+        <v>21.04</v>
       </c>
       <c r="F24" t="n">
-        <v>18.44</v>
+        <v>20.46</v>
       </c>
       <c r="G24" t="n">
-        <v>19.24</v>
+        <v>21.63</v>
       </c>
     </row>
     <row r="25">
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5896</v>
+        <v>2689</v>
       </c>
       <c r="D25" t="n">
-        <v>36518</v>
+        <v>18509</v>
       </c>
       <c r="E25" t="n">
-        <v>16.15</v>
+        <v>14.53</v>
       </c>
       <c r="F25" t="n">
-        <v>15.77</v>
+        <v>14.02</v>
       </c>
       <c r="G25" t="n">
-        <v>16.52</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="26">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4926</v>
+        <v>2406</v>
       </c>
       <c r="D26" t="n">
-        <v>36518</v>
+        <v>18509</v>
       </c>
       <c r="E26" t="n">
-        <v>13.49</v>
+        <v>13</v>
       </c>
       <c r="F26" t="n">
-        <v>13.14</v>
+        <v>12.51</v>
       </c>
       <c r="G26" t="n">
-        <v>13.84</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="27">
@@ -1157,19 +1157,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3774</v>
+        <v>1814</v>
       </c>
       <c r="D27" t="n">
-        <v>36518</v>
+        <v>18509</v>
       </c>
       <c r="E27" t="n">
-        <v>10.33</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>10.02</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>10.65</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="28">
@@ -1180,23 +1180,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3069</v>
+        <v>1642</v>
       </c>
       <c r="D28" t="n">
-        <v>36518</v>
+        <v>18509</v>
       </c>
       <c r="E28" t="n">
-        <v>8.4</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>8.119999999999999</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>8.69</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2933</v>
+        <v>1416</v>
       </c>
       <c r="D29" t="n">
-        <v>36518</v>
+        <v>18509</v>
       </c>
       <c r="E29" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="G29" t="n">
         <v>8.029999999999999</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="G29" t="n">
-        <v>8.31</v>
       </c>
     </row>
     <row r="30">
@@ -1234,23 +1234,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2760</v>
+        <v>1395</v>
       </c>
       <c r="D30" t="n">
-        <v>36518</v>
+        <v>18509</v>
       </c>
       <c r="E30" t="n">
-        <v>7.56</v>
+        <v>7.54</v>
       </c>
       <c r="F30" t="n">
-        <v>7.29</v>
+        <v>7.16</v>
       </c>
       <c r="G30" t="n">
-        <v>7.83</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="31">
@@ -1261,23 +1261,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2289</v>
+        <v>1216</v>
       </c>
       <c r="D31" t="n">
-        <v>36518</v>
+        <v>18509</v>
       </c>
       <c r="E31" t="n">
-        <v>6.27</v>
+        <v>6.57</v>
       </c>
       <c r="F31" t="n">
-        <v>6.02</v>
+        <v>6.21</v>
       </c>
       <c r="G31" t="n">
-        <v>6.52</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="32">
@@ -1288,23 +1288,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2265</v>
+        <v>1114</v>
       </c>
       <c r="D32" t="n">
-        <v>36518</v>
+        <v>18509</v>
       </c>
       <c r="E32" t="n">
-        <v>6.2</v>
+        <v>6.02</v>
       </c>
       <c r="F32" t="n">
-        <v>5.96</v>
+        <v>5.68</v>
       </c>
       <c r="G32" t="n">
-        <v>6.45</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="33">
@@ -1319,19 +1319,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>879</v>
+        <v>488</v>
       </c>
       <c r="D33" t="n">
-        <v>36518</v>
+        <v>18509</v>
       </c>
       <c r="E33" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F33" t="n">
         <v>2.41</v>
       </c>
-      <c r="F33" t="n">
-        <v>2.25</v>
-      </c>
       <c r="G33" t="n">
-        <v>2.56</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="34">
@@ -1342,23 +1342,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Symptom – Eye/Ear</t>
+          <t>Abnormal test result</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>848</v>
+        <v>434</v>
       </c>
       <c r="D34" t="n">
-        <v>36518</v>
+        <v>18509</v>
       </c>
       <c r="E34" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="F34" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="G34" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="35">
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7995</v>
+        <v>6174</v>
       </c>
       <c r="D35" t="n">
-        <v>41080</v>
+        <v>27659</v>
       </c>
       <c r="E35" t="n">
-        <v>19.46</v>
+        <v>22.32</v>
       </c>
       <c r="F35" t="n">
-        <v>19.08</v>
+        <v>21.83</v>
       </c>
       <c r="G35" t="n">
-        <v>19.84</v>
+        <v>22.81</v>
       </c>
     </row>
     <row r="36">
@@ -1400,19 +1400,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6562</v>
+        <v>3979</v>
       </c>
       <c r="D36" t="n">
-        <v>41080</v>
+        <v>27659</v>
       </c>
       <c r="E36" t="n">
-        <v>15.97</v>
+        <v>14.39</v>
       </c>
       <c r="F36" t="n">
-        <v>15.62</v>
+        <v>13.97</v>
       </c>
       <c r="G36" t="n">
-        <v>16.33</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="37">
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5765</v>
+        <v>3942</v>
       </c>
       <c r="D37" t="n">
-        <v>41080</v>
+        <v>27659</v>
       </c>
       <c r="E37" t="n">
-        <v>14.03</v>
+        <v>14.25</v>
       </c>
       <c r="F37" t="n">
-        <v>13.7</v>
+        <v>13.84</v>
       </c>
       <c r="G37" t="n">
-        <v>14.37</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="38">
@@ -1454,19 +1454,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4159</v>
+        <v>2679</v>
       </c>
       <c r="D38" t="n">
-        <v>41080</v>
+        <v>27659</v>
       </c>
       <c r="E38" t="n">
-        <v>10.12</v>
+        <v>9.69</v>
       </c>
       <c r="F38" t="n">
-        <v>9.83</v>
+        <v>9.34</v>
       </c>
       <c r="G38" t="n">
-        <v>10.42</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="39">
@@ -1477,23 +1477,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3315</v>
+        <v>2099</v>
       </c>
       <c r="D39" t="n">
-        <v>41080</v>
+        <v>27659</v>
       </c>
       <c r="E39" t="n">
-        <v>8.07</v>
+        <v>7.59</v>
       </c>
       <c r="F39" t="n">
-        <v>7.81</v>
+        <v>7.28</v>
       </c>
       <c r="G39" t="n">
-        <v>8.33</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="40">
@@ -1508,19 +1508,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3208</v>
+        <v>2006</v>
       </c>
       <c r="D40" t="n">
-        <v>41080</v>
+        <v>27659</v>
       </c>
       <c r="E40" t="n">
-        <v>7.81</v>
+        <v>7.25</v>
       </c>
       <c r="F40" t="n">
-        <v>7.55</v>
+        <v>6.95</v>
       </c>
       <c r="G40" t="n">
-        <v>8.07</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="41">
@@ -1531,23 +1531,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2920</v>
+        <v>1974</v>
       </c>
       <c r="D41" t="n">
-        <v>41080</v>
+        <v>27659</v>
       </c>
       <c r="E41" t="n">
-        <v>7.11</v>
+        <v>7.14</v>
       </c>
       <c r="F41" t="n">
-        <v>6.86</v>
+        <v>6.83</v>
       </c>
       <c r="G41" t="n">
-        <v>7.36</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="42">
@@ -1558,23 +1558,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2586</v>
+        <v>1818</v>
       </c>
       <c r="D42" t="n">
-        <v>41080</v>
+        <v>27659</v>
       </c>
       <c r="E42" t="n">
-        <v>6.3</v>
+        <v>6.57</v>
       </c>
       <c r="F42" t="n">
-        <v>6.06</v>
+        <v>6.28</v>
       </c>
       <c r="G42" t="n">
-        <v>6.53</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="43">
@@ -1585,23 +1585,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2570</v>
+        <v>1651</v>
       </c>
       <c r="D43" t="n">
-        <v>41080</v>
+        <v>27659</v>
       </c>
       <c r="E43" t="n">
-        <v>6.26</v>
+        <v>5.97</v>
       </c>
       <c r="F43" t="n">
-        <v>6.02</v>
+        <v>5.69</v>
       </c>
       <c r="G43" t="n">
-        <v>6.49</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="44">
@@ -1612,20 +1612,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Symptom – Eye/Ear</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1022</v>
+        <v>680</v>
       </c>
       <c r="D44" t="n">
-        <v>41080</v>
+        <v>27659</v>
       </c>
       <c r="E44" t="n">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="F44" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="G44" t="n">
         <v>2.64</v>
@@ -1639,23 +1639,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Abnormal test result</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>978</v>
+        <v>657</v>
       </c>
       <c r="D45" t="n">
-        <v>41080</v>
+        <v>27659</v>
       </c>
       <c r="E45" t="n">
         <v>2.38</v>
       </c>
       <c r="F45" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="G45" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="46">
@@ -1670,19 +1670,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4457</v>
+        <v>4369</v>
       </c>
       <c r="D46" t="n">
-        <v>17548</v>
+        <v>16906</v>
       </c>
       <c r="E46" t="n">
-        <v>25.4</v>
+        <v>25.84</v>
       </c>
       <c r="F46" t="n">
-        <v>24.75</v>
+        <v>25.18</v>
       </c>
       <c r="G46" t="n">
-        <v>26.04</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="47">
@@ -1697,19 +1697,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2612</v>
+        <v>2500</v>
       </c>
       <c r="D47" t="n">
-        <v>17548</v>
+        <v>16906</v>
       </c>
       <c r="E47" t="n">
-        <v>14.88</v>
+        <v>14.79</v>
       </c>
       <c r="F47" t="n">
-        <v>14.36</v>
+        <v>14.25</v>
       </c>
       <c r="G47" t="n">
-        <v>15.41</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="48">
@@ -1724,19 +1724,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2459</v>
+        <v>2377</v>
       </c>
       <c r="D48" t="n">
-        <v>17548</v>
+        <v>16906</v>
       </c>
       <c r="E48" t="n">
-        <v>14.01</v>
+        <v>14.06</v>
       </c>
       <c r="F48" t="n">
-        <v>13.5</v>
+        <v>13.54</v>
       </c>
       <c r="G48" t="n">
-        <v>14.53</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="49">
@@ -1751,19 +1751,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1689</v>
+        <v>1624</v>
       </c>
       <c r="D49" t="n">
-        <v>17548</v>
+        <v>16906</v>
       </c>
       <c r="E49" t="n">
-        <v>9.630000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>9.19</v>
+        <v>9.16</v>
       </c>
       <c r="G49" t="n">
-        <v>10.06</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="50">
@@ -1774,23 +1774,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D50" t="n">
-        <v>17548</v>
+        <v>16906</v>
       </c>
       <c r="E50" t="n">
-        <v>6.44</v>
+        <v>6.66</v>
       </c>
       <c r="F50" t="n">
-        <v>6.08</v>
+        <v>6.28</v>
       </c>
       <c r="G50" t="n">
-        <v>6.8</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="51">
@@ -1801,23 +1801,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1106</v>
+        <v>1086</v>
       </c>
       <c r="D51" t="n">
-        <v>17548</v>
+        <v>16906</v>
       </c>
       <c r="E51" t="n">
-        <v>6.3</v>
+        <v>6.42</v>
       </c>
       <c r="F51" t="n">
-        <v>5.94</v>
+        <v>6.05</v>
       </c>
       <c r="G51" t="n">
-        <v>6.66</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="52">
@@ -1828,23 +1828,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1100</v>
+        <v>1069</v>
       </c>
       <c r="D52" t="n">
-        <v>17548</v>
+        <v>16906</v>
       </c>
       <c r="E52" t="n">
-        <v>6.27</v>
+        <v>6.32</v>
       </c>
       <c r="F52" t="n">
-        <v>5.91</v>
+        <v>5.96</v>
       </c>
       <c r="G52" t="n">
-        <v>6.63</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="53">
@@ -1855,23 +1855,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1065</v>
+        <v>1033</v>
       </c>
       <c r="D53" t="n">
-        <v>17548</v>
+        <v>16906</v>
       </c>
       <c r="E53" t="n">
-        <v>6.07</v>
+        <v>6.11</v>
       </c>
       <c r="F53" t="n">
-        <v>5.72</v>
+        <v>5.75</v>
       </c>
       <c r="G53" t="n">
-        <v>6.42</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="54">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>994</v>
+        <v>944</v>
       </c>
       <c r="D54" t="n">
-        <v>17548</v>
+        <v>16906</v>
       </c>
       <c r="E54" t="n">
-        <v>5.66</v>
+        <v>5.58</v>
       </c>
       <c r="F54" t="n">
-        <v>5.32</v>
+        <v>5.24</v>
       </c>
       <c r="G54" t="n">
-        <v>6.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="55">
@@ -1909,23 +1909,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Symptom – Eye/Ear</t>
+          <t>Abnormal test result</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>556</v>
+        <v>415</v>
       </c>
       <c r="D55" t="n">
-        <v>17548</v>
+        <v>16906</v>
       </c>
       <c r="E55" t="n">
-        <v>3.17</v>
+        <v>2.45</v>
       </c>
       <c r="F55" t="n">
-        <v>2.91</v>
+        <v>2.22</v>
       </c>
       <c r="G55" t="n">
-        <v>3.43</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="56">
@@ -1940,19 +1940,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D56" t="n">
-        <v>17548</v>
+        <v>16906</v>
       </c>
       <c r="E56" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="F56" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G56" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_Hypercapnia_Definition.xlsx
+++ b/Symptom_Composition_by_Hypercapnia_Definition.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1482</v>
+        <v>1991</v>
       </c>
       <c r="D2" t="n">
-        <v>4660</v>
+        <v>7270</v>
       </c>
       <c r="E2" t="n">
-        <v>31.8</v>
+        <v>27.39</v>
       </c>
       <c r="F2" t="n">
-        <v>30.47</v>
+        <v>26.36</v>
       </c>
       <c r="G2" t="n">
-        <v>33.14</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="3">
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>522</v>
+        <v>860</v>
       </c>
       <c r="D3" t="n">
-        <v>4660</v>
+        <v>7270</v>
       </c>
       <c r="E3" t="n">
-        <v>11.2</v>
+        <v>11.83</v>
       </c>
       <c r="F3" t="n">
-        <v>10.3</v>
+        <v>11.09</v>
       </c>
       <c r="G3" t="n">
-        <v>12.11</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="4">
@@ -532,23 +532,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>493</v>
+        <v>769</v>
       </c>
       <c r="D4" t="n">
-        <v>4660</v>
+        <v>7270</v>
       </c>
       <c r="E4" t="n">
         <v>10.58</v>
       </c>
       <c r="F4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>11.46</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="5">
@@ -559,23 +559,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>464</v>
+        <v>766</v>
       </c>
       <c r="D5" t="n">
-        <v>4660</v>
+        <v>7270</v>
       </c>
       <c r="E5" t="n">
-        <v>9.960000000000001</v>
+        <v>10.54</v>
       </c>
       <c r="F5" t="n">
-        <v>9.1</v>
+        <v>9.83</v>
       </c>
       <c r="G5" t="n">
-        <v>10.82</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="6">
@@ -586,23 +586,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>379</v>
+        <v>760</v>
       </c>
       <c r="D6" t="n">
-        <v>4660</v>
+        <v>7270</v>
       </c>
       <c r="E6" t="n">
-        <v>8.130000000000001</v>
+        <v>10.45</v>
       </c>
       <c r="F6" t="n">
-        <v>7.35</v>
+        <v>9.75</v>
       </c>
       <c r="G6" t="n">
-        <v>8.92</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="7">
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>365</v>
+        <v>500</v>
       </c>
       <c r="D7" t="n">
-        <v>4660</v>
+        <v>7270</v>
       </c>
       <c r="E7" t="n">
-        <v>7.83</v>
+        <v>6.88</v>
       </c>
       <c r="F7" t="n">
-        <v>7.06</v>
+        <v>6.3</v>
       </c>
       <c r="G7" t="n">
-        <v>8.6</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="8">
@@ -640,23 +640,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>264</v>
+        <v>470</v>
       </c>
       <c r="D8" t="n">
-        <v>4660</v>
+        <v>7270</v>
       </c>
       <c r="E8" t="n">
-        <v>5.67</v>
+        <v>6.46</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="G8" t="n">
-        <v>6.33</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="9">
@@ -667,23 +667,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>257</v>
+        <v>424</v>
       </c>
       <c r="D9" t="n">
-        <v>4660</v>
+        <v>7270</v>
       </c>
       <c r="E9" t="n">
-        <v>5.52</v>
+        <v>5.83</v>
       </c>
       <c r="F9" t="n">
-        <v>4.86</v>
+        <v>5.29</v>
       </c>
       <c r="G9" t="n">
-        <v>6.17</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="10">
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="D10" t="n">
-        <v>4660</v>
+        <v>7270</v>
       </c>
       <c r="E10" t="n">
-        <v>5.02</v>
+        <v>4.72</v>
       </c>
       <c r="F10" t="n">
-        <v>4.39</v>
+        <v>4.23</v>
       </c>
       <c r="G10" t="n">
-        <v>5.65</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="11">
@@ -721,23 +721,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="D11" t="n">
-        <v>4660</v>
+        <v>7270</v>
       </c>
       <c r="E11" t="n">
-        <v>2.73</v>
+        <v>2.67</v>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>3.19</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="12">
@@ -748,23 +748,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Abnormal test result</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="D12" t="n">
-        <v>4660</v>
+        <v>7270</v>
       </c>
       <c r="E12" t="n">
-        <v>1.57</v>
+        <v>2.65</v>
       </c>
       <c r="F12" t="n">
-        <v>1.21</v>
+        <v>2.29</v>
       </c>
       <c r="G12" t="n">
-        <v>1.92</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="13">
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D17" t="n">
         <v>1983</v>
       </c>
       <c r="E17" t="n">
-        <v>4.69</v>
+        <v>5.4</v>
       </c>
       <c r="F17" t="n">
-        <v>3.76</v>
+        <v>4.4</v>
       </c>
       <c r="G17" t="n">
-        <v>5.62</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="18">
@@ -1045,23 +1045,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Abnormal test result</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
         <v>1983</v>
       </c>
       <c r="E23" t="n">
-        <v>1.77</v>
+        <v>1.06</v>
       </c>
       <c r="F23" t="n">
-        <v>1.19</v>
+        <v>0.61</v>
       </c>
       <c r="G23" t="n">
-        <v>2.34</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="24">
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3895</v>
+        <v>462</v>
       </c>
       <c r="D24" t="n">
-        <v>18509</v>
+        <v>1350</v>
       </c>
       <c r="E24" t="n">
-        <v>21.04</v>
+        <v>34.22</v>
       </c>
       <c r="F24" t="n">
-        <v>20.46</v>
+        <v>31.69</v>
       </c>
       <c r="G24" t="n">
-        <v>21.63</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="25">
@@ -1099,23 +1099,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2689</v>
+        <v>158</v>
       </c>
       <c r="D25" t="n">
-        <v>18509</v>
+        <v>1350</v>
       </c>
       <c r="E25" t="n">
-        <v>14.53</v>
+        <v>11.7</v>
       </c>
       <c r="F25" t="n">
-        <v>14.02</v>
+        <v>9.99</v>
       </c>
       <c r="G25" t="n">
-        <v>15.04</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="26">
@@ -1126,23 +1126,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2406</v>
+        <v>152</v>
       </c>
       <c r="D26" t="n">
-        <v>18509</v>
+        <v>1350</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>11.26</v>
       </c>
       <c r="F26" t="n">
-        <v>12.51</v>
+        <v>9.57</v>
       </c>
       <c r="G26" t="n">
-        <v>13.48</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="27">
@@ -1157,19 +1157,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1814</v>
+        <v>116</v>
       </c>
       <c r="D27" t="n">
-        <v>18509</v>
+        <v>1350</v>
       </c>
       <c r="E27" t="n">
-        <v>9.800000000000001</v>
+        <v>8.59</v>
       </c>
       <c r="F27" t="n">
-        <v>9.369999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="G27" t="n">
-        <v>10.23</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="28">
@@ -1180,23 +1180,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1642</v>
+        <v>101</v>
       </c>
       <c r="D28" t="n">
-        <v>18509</v>
+        <v>1350</v>
       </c>
       <c r="E28" t="n">
-        <v>8.869999999999999</v>
+        <v>7.48</v>
       </c>
       <c r="F28" t="n">
-        <v>8.460000000000001</v>
+        <v>6.08</v>
       </c>
       <c r="G28" t="n">
-        <v>9.279999999999999</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1207,23 +1207,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1416</v>
+        <v>90</v>
       </c>
       <c r="D29" t="n">
-        <v>18509</v>
+        <v>1350</v>
       </c>
       <c r="E29" t="n">
-        <v>7.65</v>
+        <v>6.67</v>
       </c>
       <c r="F29" t="n">
-        <v>7.27</v>
+        <v>5.34</v>
       </c>
       <c r="G29" t="n">
-        <v>8.029999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1234,23 +1234,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1395</v>
+        <v>74</v>
       </c>
       <c r="D30" t="n">
-        <v>18509</v>
+        <v>1350</v>
       </c>
       <c r="E30" t="n">
-        <v>7.54</v>
+        <v>5.48</v>
       </c>
       <c r="F30" t="n">
-        <v>7.16</v>
+        <v>4.27</v>
       </c>
       <c r="G30" t="n">
-        <v>7.92</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="31">
@@ -1261,23 +1261,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1216</v>
+        <v>68</v>
       </c>
       <c r="D31" t="n">
-        <v>18509</v>
+        <v>1350</v>
       </c>
       <c r="E31" t="n">
-        <v>6.57</v>
+        <v>5.04</v>
       </c>
       <c r="F31" t="n">
-        <v>6.21</v>
+        <v>3.87</v>
       </c>
       <c r="G31" t="n">
-        <v>6.93</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="32">
@@ -1288,23 +1288,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1114</v>
+        <v>66</v>
       </c>
       <c r="D32" t="n">
-        <v>18509</v>
+        <v>1350</v>
       </c>
       <c r="E32" t="n">
-        <v>6.02</v>
+        <v>4.89</v>
       </c>
       <c r="F32" t="n">
-        <v>5.68</v>
+        <v>3.74</v>
       </c>
       <c r="G32" t="n">
-        <v>6.36</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="33">
@@ -1319,19 +1319,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>488</v>
+        <v>36</v>
       </c>
       <c r="D33" t="n">
-        <v>18509</v>
+        <v>1350</v>
       </c>
       <c r="E33" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="F33" t="n">
-        <v>2.41</v>
+        <v>1.81</v>
       </c>
       <c r="G33" t="n">
-        <v>2.87</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="34">
@@ -1342,23 +1342,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Abnormal test result</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>434</v>
+        <v>27</v>
       </c>
       <c r="D34" t="n">
-        <v>18509</v>
+        <v>1350</v>
       </c>
       <c r="E34" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>2.13</v>
+        <v>1.25</v>
       </c>
       <c r="G34" t="n">
-        <v>2.56</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="35">
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6174</v>
+        <v>3386</v>
       </c>
       <c r="D35" t="n">
-        <v>27659</v>
+        <v>11309</v>
       </c>
       <c r="E35" t="n">
-        <v>22.32</v>
+        <v>29.94</v>
       </c>
       <c r="F35" t="n">
-        <v>21.83</v>
+        <v>29.1</v>
       </c>
       <c r="G35" t="n">
-        <v>22.81</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="36">
@@ -1396,23 +1396,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3979</v>
+        <v>1338</v>
       </c>
       <c r="D36" t="n">
-        <v>27659</v>
+        <v>11309</v>
       </c>
       <c r="E36" t="n">
-        <v>14.39</v>
+        <v>11.83</v>
       </c>
       <c r="F36" t="n">
-        <v>13.97</v>
+        <v>11.24</v>
       </c>
       <c r="G36" t="n">
-        <v>14.8</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="37">
@@ -1423,23 +1423,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3942</v>
+        <v>1297</v>
       </c>
       <c r="D37" t="n">
-        <v>27659</v>
+        <v>11309</v>
       </c>
       <c r="E37" t="n">
-        <v>14.25</v>
+        <v>11.47</v>
       </c>
       <c r="F37" t="n">
-        <v>13.84</v>
+        <v>10.88</v>
       </c>
       <c r="G37" t="n">
-        <v>14.66</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="38">
@@ -1454,19 +1454,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2679</v>
+        <v>1141</v>
       </c>
       <c r="D38" t="n">
-        <v>27659</v>
+        <v>11309</v>
       </c>
       <c r="E38" t="n">
-        <v>9.69</v>
+        <v>10.09</v>
       </c>
       <c r="F38" t="n">
-        <v>9.34</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>10.03</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="39">
@@ -1481,19 +1481,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2099</v>
+        <v>1017</v>
       </c>
       <c r="D39" t="n">
-        <v>27659</v>
+        <v>11309</v>
       </c>
       <c r="E39" t="n">
-        <v>7.59</v>
+        <v>8.99</v>
       </c>
       <c r="F39" t="n">
-        <v>7.28</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>7.9</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="40">
@@ -1508,19 +1508,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2006</v>
+        <v>726</v>
       </c>
       <c r="D40" t="n">
-        <v>27659</v>
+        <v>11309</v>
       </c>
       <c r="E40" t="n">
-        <v>7.25</v>
+        <v>6.42</v>
       </c>
       <c r="F40" t="n">
-        <v>6.95</v>
+        <v>5.97</v>
       </c>
       <c r="G40" t="n">
-        <v>7.56</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="41">
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1974</v>
+        <v>686</v>
       </c>
       <c r="D41" t="n">
-        <v>27659</v>
+        <v>11309</v>
       </c>
       <c r="E41" t="n">
-        <v>7.14</v>
+        <v>6.07</v>
       </c>
       <c r="F41" t="n">
-        <v>6.83</v>
+        <v>5.63</v>
       </c>
       <c r="G41" t="n">
-        <v>7.44</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="42">
@@ -1558,23 +1558,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1818</v>
+        <v>645</v>
       </c>
       <c r="D42" t="n">
-        <v>27659</v>
+        <v>11309</v>
       </c>
       <c r="E42" t="n">
-        <v>6.57</v>
+        <v>5.7</v>
       </c>
       <c r="F42" t="n">
-        <v>6.28</v>
+        <v>5.28</v>
       </c>
       <c r="G42" t="n">
-        <v>6.86</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="43">
@@ -1585,23 +1585,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1651</v>
+        <v>567</v>
       </c>
       <c r="D43" t="n">
-        <v>27659</v>
+        <v>11309</v>
       </c>
       <c r="E43" t="n">
-        <v>5.97</v>
+        <v>5.01</v>
       </c>
       <c r="F43" t="n">
-        <v>5.69</v>
+        <v>4.61</v>
       </c>
       <c r="G43" t="n">
-        <v>6.25</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="44">
@@ -1616,19 +1616,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>680</v>
+        <v>272</v>
       </c>
       <c r="D44" t="n">
-        <v>27659</v>
+        <v>11309</v>
       </c>
       <c r="E44" t="n">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="F44" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="G44" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="45">
@@ -1639,23 +1639,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Abnormal test result</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>657</v>
+        <v>234</v>
       </c>
       <c r="D45" t="n">
-        <v>27659</v>
+        <v>11309</v>
       </c>
       <c r="E45" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="F45" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="G45" t="n">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="46">
@@ -1670,19 +1670,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4369</v>
+        <v>2284</v>
       </c>
       <c r="D46" t="n">
-        <v>16906</v>
+        <v>6244</v>
       </c>
       <c r="E46" t="n">
-        <v>25.84</v>
+        <v>36.58</v>
       </c>
       <c r="F46" t="n">
-        <v>25.18</v>
+        <v>35.38</v>
       </c>
       <c r="G46" t="n">
-        <v>26.5</v>
+        <v>37.77</v>
       </c>
     </row>
     <row r="47">
@@ -1693,23 +1693,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2500</v>
+        <v>792</v>
       </c>
       <c r="D47" t="n">
-        <v>16906</v>
+        <v>6244</v>
       </c>
       <c r="E47" t="n">
-        <v>14.79</v>
+        <v>12.68</v>
       </c>
       <c r="F47" t="n">
-        <v>14.25</v>
+        <v>11.86</v>
       </c>
       <c r="G47" t="n">
-        <v>15.32</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="48">
@@ -1720,23 +1720,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2377</v>
+        <v>683</v>
       </c>
       <c r="D48" t="n">
-        <v>16906</v>
+        <v>6244</v>
       </c>
       <c r="E48" t="n">
-        <v>14.06</v>
+        <v>10.94</v>
       </c>
       <c r="F48" t="n">
-        <v>13.54</v>
+        <v>10.16</v>
       </c>
       <c r="G48" t="n">
-        <v>14.58</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="49">
@@ -1751,19 +1751,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1624</v>
+        <v>538</v>
       </c>
       <c r="D49" t="n">
-        <v>16906</v>
+        <v>6244</v>
       </c>
       <c r="E49" t="n">
-        <v>9.609999999999999</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>9.16</v>
+        <v>7.92</v>
       </c>
       <c r="G49" t="n">
-        <v>10.05</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="50">
@@ -1774,23 +1774,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1126</v>
+        <v>420</v>
       </c>
       <c r="D50" t="n">
-        <v>16906</v>
+        <v>6244</v>
       </c>
       <c r="E50" t="n">
-        <v>6.66</v>
+        <v>6.73</v>
       </c>
       <c r="F50" t="n">
-        <v>6.28</v>
+        <v>6.11</v>
       </c>
       <c r="G50" t="n">
-        <v>7.04</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="51">
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1086</v>
+        <v>361</v>
       </c>
       <c r="D51" t="n">
-        <v>16906</v>
+        <v>6244</v>
       </c>
       <c r="E51" t="n">
-        <v>6.42</v>
+        <v>5.78</v>
       </c>
       <c r="F51" t="n">
-        <v>6.05</v>
+        <v>5.2</v>
       </c>
       <c r="G51" t="n">
-        <v>6.79</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="52">
@@ -1828,23 +1828,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1069</v>
+        <v>331</v>
       </c>
       <c r="D52" t="n">
-        <v>16906</v>
+        <v>6244</v>
       </c>
       <c r="E52" t="n">
-        <v>6.32</v>
+        <v>5.3</v>
       </c>
       <c r="F52" t="n">
-        <v>5.96</v>
+        <v>4.75</v>
       </c>
       <c r="G52" t="n">
-        <v>6.69</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="53">
@@ -1855,23 +1855,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1033</v>
+        <v>322</v>
       </c>
       <c r="D53" t="n">
-        <v>16906</v>
+        <v>6244</v>
       </c>
       <c r="E53" t="n">
-        <v>6.11</v>
+        <v>5.16</v>
       </c>
       <c r="F53" t="n">
-        <v>5.75</v>
+        <v>4.61</v>
       </c>
       <c r="G53" t="n">
-        <v>6.47</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="54">
@@ -1882,23 +1882,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>944</v>
+        <v>304</v>
       </c>
       <c r="D54" t="n">
-        <v>16906</v>
+        <v>6244</v>
       </c>
       <c r="E54" t="n">
-        <v>5.58</v>
+        <v>4.87</v>
       </c>
       <c r="F54" t="n">
-        <v>5.24</v>
+        <v>4.33</v>
       </c>
       <c r="G54" t="n">
-        <v>5.93</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="55">
@@ -1909,23 +1909,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Abnormal test result</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>415</v>
+        <v>126</v>
       </c>
       <c r="D55" t="n">
-        <v>16906</v>
+        <v>6244</v>
       </c>
       <c r="E55" t="n">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="F55" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="G55" t="n">
-        <v>2.69</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="56">
@@ -1936,23 +1936,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="D56" t="n">
-        <v>16906</v>
+        <v>6244</v>
       </c>
       <c r="E56" t="n">
-        <v>2.15</v>
+        <v>1.33</v>
       </c>
       <c r="F56" t="n">
-        <v>1.93</v>
+        <v>1.05</v>
       </c>
       <c r="G56" t="n">
-        <v>2.37</v>
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_Hypercapnia_Definition.xlsx
+++ b/Symptom_Composition_by_Hypercapnia_Definition.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1991</v>
+        <v>1970</v>
       </c>
       <c r="D2" t="n">
         <v>7270</v>
       </c>
       <c r="E2" t="n">
-        <v>27.39</v>
+        <v>27.1</v>
       </c>
       <c r="F2" t="n">
-        <v>26.36</v>
+        <v>26.08</v>
       </c>
       <c r="G2" t="n">
-        <v>28.41</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="3">
@@ -505,23 +505,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>860</v>
+        <v>1155</v>
       </c>
       <c r="D3" t="n">
         <v>7270</v>
       </c>
       <c r="E3" t="n">
-        <v>11.83</v>
+        <v>15.89</v>
       </c>
       <c r="F3" t="n">
-        <v>11.09</v>
+        <v>15.05</v>
       </c>
       <c r="G3" t="n">
-        <v>12.57</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="4">
@@ -532,23 +532,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>769</v>
+        <v>878</v>
       </c>
       <c r="D4" t="n">
         <v>7270</v>
       </c>
       <c r="E4" t="n">
-        <v>10.58</v>
+        <v>12.08</v>
       </c>
       <c r="F4" t="n">
-        <v>9.869999999999999</v>
+        <v>11.33</v>
       </c>
       <c r="G4" t="n">
-        <v>11.28</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="5">
@@ -559,23 +559,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>766</v>
+        <v>737</v>
       </c>
       <c r="D5" t="n">
         <v>7270</v>
       </c>
       <c r="E5" t="n">
-        <v>10.54</v>
+        <v>10.14</v>
       </c>
       <c r="F5" t="n">
-        <v>9.83</v>
+        <v>9.44</v>
       </c>
       <c r="G5" t="n">
-        <v>11.24</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="6">
@@ -586,23 +586,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="D6" t="n">
         <v>7270</v>
       </c>
       <c r="E6" t="n">
-        <v>10.45</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>9.75</v>
+        <v>9.19</v>
       </c>
       <c r="G6" t="n">
-        <v>11.16</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="7">
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="D7" t="n">
         <v>7270</v>
       </c>
       <c r="E7" t="n">
-        <v>6.88</v>
+        <v>6.38</v>
       </c>
       <c r="F7" t="n">
-        <v>6.3</v>
+        <v>5.82</v>
       </c>
       <c r="G7" t="n">
-        <v>7.46</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="8">
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D8" t="n">
         <v>7270</v>
       </c>
       <c r="E8" t="n">
-        <v>6.46</v>
+        <v>6.23</v>
       </c>
       <c r="F8" t="n">
-        <v>5.9</v>
+        <v>5.68</v>
       </c>
       <c r="G8" t="n">
-        <v>7.03</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="9">
@@ -667,23 +667,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>424</v>
+        <v>302</v>
       </c>
       <c r="D9" t="n">
         <v>7270</v>
       </c>
       <c r="E9" t="n">
-        <v>5.83</v>
+        <v>4.15</v>
       </c>
       <c r="F9" t="n">
-        <v>5.29</v>
+        <v>3.7</v>
       </c>
       <c r="G9" t="n">
-        <v>6.37</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="10">
@@ -694,23 +694,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>343</v>
+        <v>211</v>
       </c>
       <c r="D10" t="n">
         <v>7270</v>
       </c>
       <c r="E10" t="n">
-        <v>4.72</v>
+        <v>2.9</v>
       </c>
       <c r="F10" t="n">
-        <v>4.23</v>
+        <v>2.52</v>
       </c>
       <c r="G10" t="n">
-        <v>5.21</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="11">
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D11" t="n">
         <v>7270</v>
       </c>
       <c r="E11" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="F11" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="G11" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="12">
@@ -748,23 +748,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D12" t="n">
         <v>7270</v>
       </c>
       <c r="E12" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="F12" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="G12" t="n">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="13">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="D13" t="n">
         <v>1983</v>
       </c>
       <c r="E13" t="n">
-        <v>50.28</v>
+        <v>49.82</v>
       </c>
       <c r="F13" t="n">
-        <v>48.08</v>
+        <v>47.62</v>
       </c>
       <c r="G13" t="n">
-        <v>52.48</v>
+        <v>52.02</v>
       </c>
     </row>
     <row r="14">
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D14" t="n">
         <v>1983</v>
       </c>
       <c r="E14" t="n">
-        <v>11.7</v>
+        <v>11.25</v>
       </c>
       <c r="F14" t="n">
-        <v>10.28</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>13.11</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="15">
@@ -829,23 +829,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D15" t="n">
         <v>1983</v>
       </c>
       <c r="E15" t="n">
-        <v>6.91</v>
+        <v>7.97</v>
       </c>
       <c r="F15" t="n">
-        <v>5.79</v>
+        <v>6.78</v>
       </c>
       <c r="G15" t="n">
-        <v>8.02</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="16">
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D16" t="n">
         <v>1983</v>
       </c>
       <c r="E16" t="n">
-        <v>6.71</v>
+        <v>7.21</v>
       </c>
       <c r="F16" t="n">
-        <v>5.61</v>
+        <v>6.07</v>
       </c>
       <c r="G16" t="n">
-        <v>7.81</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="17">
@@ -883,23 +883,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D17" t="n">
         <v>1983</v>
       </c>
       <c r="E17" t="n">
-        <v>5.4</v>
+        <v>6.71</v>
       </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>5.61</v>
       </c>
       <c r="G17" t="n">
-        <v>6.39</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="18">
@@ -910,23 +910,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D18" t="n">
         <v>1983</v>
       </c>
       <c r="E18" t="n">
-        <v>4.44</v>
+        <v>5.7</v>
       </c>
       <c r="F18" t="n">
-        <v>3.53</v>
+        <v>4.68</v>
       </c>
       <c r="G18" t="n">
-        <v>5.34</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="19">
@@ -937,23 +937,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D19" t="n">
         <v>1983</v>
       </c>
       <c r="E19" t="n">
-        <v>4.34</v>
+        <v>4.14</v>
       </c>
       <c r="F19" t="n">
-        <v>3.44</v>
+        <v>3.26</v>
       </c>
       <c r="G19" t="n">
-        <v>5.23</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="20">
@@ -964,23 +964,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D20" t="n">
         <v>1983</v>
       </c>
       <c r="E20" t="n">
-        <v>4.14</v>
+        <v>3.03</v>
       </c>
       <c r="F20" t="n">
-        <v>3.26</v>
+        <v>2.27</v>
       </c>
       <c r="G20" t="n">
-        <v>5.01</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="21">
@@ -991,23 +991,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>1983</v>
       </c>
       <c r="E21" t="n">
-        <v>3.18</v>
+        <v>1.66</v>
       </c>
       <c r="F21" t="n">
-        <v>2.41</v>
+        <v>1.1</v>
       </c>
       <c r="G21" t="n">
-        <v>3.95</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="22">
@@ -1018,23 +1018,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>1983</v>
       </c>
       <c r="E22" t="n">
-        <v>1.87</v>
+        <v>1.41</v>
       </c>
       <c r="F22" t="n">
-        <v>1.27</v>
+        <v>0.89</v>
       </c>
       <c r="G22" t="n">
-        <v>2.46</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="23">
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
         <v>1983</v>
       </c>
       <c r="E23" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="F23" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="24">
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D24" t="n">
         <v>1350</v>
       </c>
       <c r="E24" t="n">
-        <v>34.22</v>
+        <v>34.07</v>
       </c>
       <c r="F24" t="n">
-        <v>31.69</v>
+        <v>31.55</v>
       </c>
       <c r="G24" t="n">
-        <v>36.75</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="25">
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D25" t="n">
         <v>1350</v>
       </c>
       <c r="E25" t="n">
-        <v>11.7</v>
+        <v>12.07</v>
       </c>
       <c r="F25" t="n">
-        <v>9.99</v>
+        <v>10.34</v>
       </c>
       <c r="G25" t="n">
-        <v>13.42</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="26">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D26" t="n">
         <v>1350</v>
       </c>
       <c r="E26" t="n">
-        <v>11.26</v>
+        <v>11.04</v>
       </c>
       <c r="F26" t="n">
-        <v>9.57</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>12.95</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="27">
@@ -1153,23 +1153,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D27" t="n">
         <v>1350</v>
       </c>
       <c r="E27" t="n">
-        <v>8.59</v>
+        <v>10.37</v>
       </c>
       <c r="F27" t="n">
-        <v>7.1</v>
+        <v>8.74</v>
       </c>
       <c r="G27" t="n">
-        <v>10.09</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1180,23 +1180,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D28" t="n">
         <v>1350</v>
       </c>
       <c r="E28" t="n">
-        <v>7.48</v>
+        <v>8.52</v>
       </c>
       <c r="F28" t="n">
-        <v>6.08</v>
+        <v>7.03</v>
       </c>
       <c r="G28" t="n">
-        <v>8.880000000000001</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="29">
@@ -1207,23 +1207,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D29" t="n">
         <v>1350</v>
       </c>
       <c r="E29" t="n">
-        <v>6.67</v>
+        <v>7.7</v>
       </c>
       <c r="F29" t="n">
-        <v>5.34</v>
+        <v>6.28</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1238,19 +1238,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D30" t="n">
         <v>1350</v>
       </c>
       <c r="E30" t="n">
-        <v>5.48</v>
+        <v>5.19</v>
       </c>
       <c r="F30" t="n">
-        <v>4.27</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>6.7</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="31">
@@ -1261,23 +1261,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D31" t="n">
         <v>1350</v>
       </c>
       <c r="E31" t="n">
-        <v>5.04</v>
+        <v>4.44</v>
       </c>
       <c r="F31" t="n">
-        <v>3.87</v>
+        <v>3.35</v>
       </c>
       <c r="G31" t="n">
-        <v>6.2</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="32">
@@ -1288,23 +1288,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
         <v>1350</v>
       </c>
       <c r="E32" t="n">
-        <v>4.89</v>
+        <v>2.52</v>
       </c>
       <c r="F32" t="n">
-        <v>3.74</v>
+        <v>1.68</v>
       </c>
       <c r="G32" t="n">
-        <v>6.04</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="33">
@@ -1315,23 +1315,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>1350</v>
       </c>
       <c r="E33" t="n">
-        <v>2.67</v>
+        <v>2.15</v>
       </c>
       <c r="F33" t="n">
-        <v>1.81</v>
+        <v>1.37</v>
       </c>
       <c r="G33" t="n">
-        <v>3.53</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="34">
@@ -1342,23 +1342,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Uncodable/Unknown</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="n">
         <v>1350</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="F34" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="G34" t="n">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="35">
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3386</v>
+        <v>3354</v>
       </c>
       <c r="D35" t="n">
         <v>11309</v>
       </c>
       <c r="E35" t="n">
-        <v>29.94</v>
+        <v>29.66</v>
       </c>
       <c r="F35" t="n">
-        <v>29.1</v>
+        <v>28.82</v>
       </c>
       <c r="G35" t="n">
-        <v>30.78</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="36">
@@ -1396,23 +1396,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1338</v>
+        <v>1581</v>
       </c>
       <c r="D36" t="n">
         <v>11309</v>
       </c>
       <c r="E36" t="n">
-        <v>11.83</v>
+        <v>13.98</v>
       </c>
       <c r="F36" t="n">
-        <v>11.24</v>
+        <v>13.34</v>
       </c>
       <c r="G36" t="n">
-        <v>12.43</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="37">
@@ -1423,23 +1423,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1297</v>
+        <v>1374</v>
       </c>
       <c r="D37" t="n">
         <v>11309</v>
       </c>
       <c r="E37" t="n">
-        <v>11.47</v>
+        <v>12.15</v>
       </c>
       <c r="F37" t="n">
-        <v>10.88</v>
+        <v>11.55</v>
       </c>
       <c r="G37" t="n">
-        <v>12.06</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="38">
@@ -1450,23 +1450,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1141</v>
+        <v>1254</v>
       </c>
       <c r="D38" t="n">
         <v>11309</v>
       </c>
       <c r="E38" t="n">
-        <v>10.09</v>
+        <v>11.09</v>
       </c>
       <c r="F38" t="n">
-        <v>9.529999999999999</v>
+        <v>10.51</v>
       </c>
       <c r="G38" t="n">
-        <v>10.64</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="39">
@@ -1477,23 +1477,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1017</v>
+        <v>1083</v>
       </c>
       <c r="D39" t="n">
         <v>11309</v>
       </c>
       <c r="E39" t="n">
-        <v>8.99</v>
+        <v>9.58</v>
       </c>
       <c r="F39" t="n">
-        <v>8.470000000000001</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>9.52</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="40">
@@ -1508,19 +1508,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="D40" t="n">
         <v>11309</v>
       </c>
       <c r="E40" t="n">
-        <v>6.42</v>
+        <v>6.56</v>
       </c>
       <c r="F40" t="n">
-        <v>5.97</v>
+        <v>6.1</v>
       </c>
       <c r="G40" t="n">
-        <v>6.87</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="41">
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="D41" t="n">
         <v>11309</v>
       </c>
       <c r="E41" t="n">
-        <v>6.07</v>
+        <v>5.51</v>
       </c>
       <c r="F41" t="n">
-        <v>5.63</v>
+        <v>5.09</v>
       </c>
       <c r="G41" t="n">
-        <v>6.51</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="42">
@@ -1558,23 +1558,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>645</v>
+        <v>521</v>
       </c>
       <c r="D42" t="n">
         <v>11309</v>
       </c>
       <c r="E42" t="n">
-        <v>5.7</v>
+        <v>4.61</v>
       </c>
       <c r="F42" t="n">
-        <v>5.28</v>
+        <v>4.22</v>
       </c>
       <c r="G42" t="n">
-        <v>6.13</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="43">
@@ -1585,23 +1585,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>567</v>
+        <v>288</v>
       </c>
       <c r="D43" t="n">
         <v>11309</v>
       </c>
       <c r="E43" t="n">
-        <v>5.01</v>
+        <v>2.55</v>
       </c>
       <c r="F43" t="n">
-        <v>4.61</v>
+        <v>2.26</v>
       </c>
       <c r="G43" t="n">
-        <v>5.42</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="44">
@@ -1612,23 +1612,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D44" t="n">
         <v>11309</v>
       </c>
       <c r="E44" t="n">
-        <v>2.41</v>
+        <v>2.3</v>
       </c>
       <c r="F44" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="G44" t="n">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="45">
@@ -1643,19 +1643,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D45" t="n">
         <v>11309</v>
       </c>
       <c r="E45" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="F45" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="G45" t="n">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="46">
@@ -1670,19 +1670,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2284</v>
+        <v>2264</v>
       </c>
       <c r="D46" t="n">
         <v>6244</v>
       </c>
       <c r="E46" t="n">
-        <v>36.58</v>
+        <v>36.26</v>
       </c>
       <c r="F46" t="n">
-        <v>35.38</v>
+        <v>35.07</v>
       </c>
       <c r="G46" t="n">
-        <v>37.77</v>
+        <v>37.45</v>
       </c>
     </row>
     <row r="47">
@@ -1697,19 +1697,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="D47" t="n">
         <v>6244</v>
       </c>
       <c r="E47" t="n">
-        <v>12.68</v>
+        <v>12.17</v>
       </c>
       <c r="F47" t="n">
-        <v>11.86</v>
+        <v>11.36</v>
       </c>
       <c r="G47" t="n">
-        <v>13.51</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="48">
@@ -1724,19 +1724,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="D48" t="n">
         <v>6244</v>
       </c>
       <c r="E48" t="n">
-        <v>10.94</v>
+        <v>11.42</v>
       </c>
       <c r="F48" t="n">
-        <v>10.16</v>
+        <v>10.63</v>
       </c>
       <c r="G48" t="n">
-        <v>11.71</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="49">
@@ -1747,23 +1747,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>538</v>
+        <v>690</v>
       </c>
       <c r="D49" t="n">
         <v>6244</v>
       </c>
       <c r="E49" t="n">
-        <v>8.619999999999999</v>
+        <v>11.05</v>
       </c>
       <c r="F49" t="n">
-        <v>7.92</v>
+        <v>10.27</v>
       </c>
       <c r="G49" t="n">
-        <v>9.31</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="50">
@@ -1774,23 +1774,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>420</v>
+        <v>526</v>
       </c>
       <c r="D50" t="n">
         <v>6244</v>
       </c>
       <c r="E50" t="n">
-        <v>6.73</v>
+        <v>8.42</v>
       </c>
       <c r="F50" t="n">
-        <v>6.11</v>
+        <v>7.74</v>
       </c>
       <c r="G50" t="n">
-        <v>7.35</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="D51" t="n">
         <v>6244</v>
       </c>
       <c r="E51" t="n">
-        <v>5.78</v>
+        <v>6.55</v>
       </c>
       <c r="F51" t="n">
-        <v>5.2</v>
+        <v>5.94</v>
       </c>
       <c r="G51" t="n">
-        <v>6.36</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="52">
@@ -1828,23 +1828,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="D52" t="n">
         <v>6244</v>
       </c>
       <c r="E52" t="n">
-        <v>5.3</v>
+        <v>4.95</v>
       </c>
       <c r="F52" t="n">
-        <v>4.75</v>
+        <v>4.41</v>
       </c>
       <c r="G52" t="n">
-        <v>5.86</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="53">
@@ -1855,23 +1855,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="D53" t="n">
         <v>6244</v>
       </c>
       <c r="E53" t="n">
-        <v>5.16</v>
+        <v>4.08</v>
       </c>
       <c r="F53" t="n">
-        <v>4.61</v>
+        <v>3.59</v>
       </c>
       <c r="G53" t="n">
-        <v>5.71</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="54">
@@ -1882,23 +1882,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>304</v>
+        <v>118</v>
       </c>
       <c r="D54" t="n">
         <v>6244</v>
       </c>
       <c r="E54" t="n">
-        <v>4.87</v>
+        <v>1.89</v>
       </c>
       <c r="F54" t="n">
-        <v>4.33</v>
+        <v>1.55</v>
       </c>
       <c r="G54" t="n">
-        <v>5.4</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="55">
@@ -1909,23 +1909,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D55" t="n">
         <v>6244</v>
       </c>
       <c r="E55" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="F55" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="G55" t="n">
-        <v>2.37</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="56">

--- a/Symptom_Composition_by_Hypercapnia_Definition.xlsx
+++ b/Symptom_Composition_by_Hypercapnia_Definition.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1970</v>
+        <v>1007</v>
       </c>
       <c r="D2" t="n">
-        <v>7270</v>
+        <v>3512</v>
       </c>
       <c r="E2" t="n">
-        <v>27.1</v>
+        <v>28.67</v>
       </c>
       <c r="F2" t="n">
-        <v>26.08</v>
+        <v>27.18</v>
       </c>
       <c r="G2" t="n">
-        <v>28.12</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="3">
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1155</v>
+        <v>740</v>
       </c>
       <c r="D3" t="n">
-        <v>7270</v>
+        <v>3512</v>
       </c>
       <c r="E3" t="n">
-        <v>15.89</v>
+        <v>21.07</v>
       </c>
       <c r="F3" t="n">
-        <v>15.05</v>
+        <v>19.72</v>
       </c>
       <c r="G3" t="n">
-        <v>16.73</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="4">
@@ -532,23 +532,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>878</v>
+        <v>367</v>
       </c>
       <c r="D4" t="n">
-        <v>7270</v>
+        <v>3512</v>
       </c>
       <c r="E4" t="n">
-        <v>12.08</v>
+        <v>10.45</v>
       </c>
       <c r="F4" t="n">
-        <v>11.33</v>
+        <v>9.44</v>
       </c>
       <c r="G4" t="n">
-        <v>12.83</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="5">
@@ -559,23 +559,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>737</v>
+        <v>342</v>
       </c>
       <c r="D5" t="n">
-        <v>7270</v>
+        <v>3512</v>
       </c>
       <c r="E5" t="n">
-        <v>10.14</v>
+        <v>9.74</v>
       </c>
       <c r="F5" t="n">
-        <v>9.44</v>
+        <v>8.76</v>
       </c>
       <c r="G5" t="n">
-        <v>10.83</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="6">
@@ -586,23 +586,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>718</v>
+        <v>240</v>
       </c>
       <c r="D6" t="n">
-        <v>7270</v>
+        <v>3512</v>
       </c>
       <c r="E6" t="n">
-        <v>9.880000000000001</v>
+        <v>6.83</v>
       </c>
       <c r="F6" t="n">
-        <v>9.19</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>10.56</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="7">
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>464</v>
+        <v>227</v>
       </c>
       <c r="D7" t="n">
-        <v>7270</v>
+        <v>3512</v>
       </c>
       <c r="E7" t="n">
-        <v>6.38</v>
+        <v>6.46</v>
       </c>
       <c r="F7" t="n">
-        <v>5.82</v>
+        <v>5.65</v>
       </c>
       <c r="G7" t="n">
-        <v>6.94</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="8">
@@ -640,23 +640,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>453</v>
+        <v>196</v>
       </c>
       <c r="D8" t="n">
-        <v>7270</v>
+        <v>3512</v>
       </c>
       <c r="E8" t="n">
-        <v>6.23</v>
+        <v>5.58</v>
       </c>
       <c r="F8" t="n">
-        <v>5.68</v>
+        <v>4.82</v>
       </c>
       <c r="G8" t="n">
-        <v>6.79</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="9">
@@ -667,23 +667,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="D9" t="n">
-        <v>7270</v>
+        <v>3512</v>
       </c>
       <c r="E9" t="n">
-        <v>4.15</v>
+        <v>3.93</v>
       </c>
       <c r="F9" t="n">
-        <v>3.7</v>
+        <v>3.29</v>
       </c>
       <c r="G9" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="10">
@@ -694,23 +694,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="D10" t="n">
-        <v>7270</v>
+        <v>3512</v>
       </c>
       <c r="E10" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="F10" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="G10" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11">
@@ -721,23 +721,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Uncodable/Unknown</t>
+          <t>Administrative</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="D11" t="n">
-        <v>7270</v>
+        <v>3512</v>
       </c>
       <c r="E11" t="n">
-        <v>2.64</v>
+        <v>2.28</v>
       </c>
       <c r="F11" t="n">
-        <v>2.27</v>
+        <v>1.78</v>
       </c>
       <c r="G11" t="n">
-        <v>3.01</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="12">
@@ -748,23 +748,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Symptom – Musculoskeletal</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
-        <v>7270</v>
+        <v>3512</v>
       </c>
       <c r="E12" t="n">
-        <v>2.61</v>
+        <v>2.22</v>
       </c>
       <c r="F12" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="13">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D13" t="n">
         <v>1983</v>
       </c>
       <c r="E13" t="n">
-        <v>49.82</v>
+        <v>49.87</v>
       </c>
       <c r="F13" t="n">
-        <v>47.62</v>
+        <v>47.67</v>
       </c>
       <c r="G13" t="n">
-        <v>52.02</v>
+        <v>52.07</v>
       </c>
     </row>
     <row r="14">
@@ -914,19 +914,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18" t="n">
         <v>1983</v>
       </c>
       <c r="E18" t="n">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="F18" t="n">
-        <v>4.68</v>
+        <v>4.72</v>
       </c>
       <c r="G18" t="n">
-        <v>6.72</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="19">
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="n">
         <v>1983</v>
       </c>
       <c r="E20" t="n">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="F20" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="G20" t="n">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="21">
@@ -991,23 +991,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Administrative</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>1983</v>
       </c>
       <c r="E21" t="n">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="F21" t="n">
-        <v>1.1</v>
+        <v>0.98</v>
       </c>
       <c r="G21" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="22">
@@ -1018,23 +1018,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Symptom – Musculoskeletal</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
         <v>1983</v>
       </c>
       <c r="E22" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="F22" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="G22" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="23">
@@ -1049,25 +1049,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
         <v>1983</v>
       </c>
       <c r="E23" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="F23" t="n">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="G23" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1076,52 +1076,52 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>460</v>
+        <v>2037</v>
       </c>
       <c r="D24" t="n">
-        <v>1350</v>
+        <v>6246</v>
       </c>
       <c r="E24" t="n">
-        <v>34.07</v>
+        <v>32.61</v>
       </c>
       <c r="F24" t="n">
-        <v>31.55</v>
+        <v>31.45</v>
       </c>
       <c r="G24" t="n">
-        <v>36.6</v>
+        <v>33.78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>163</v>
+        <v>1030</v>
       </c>
       <c r="D25" t="n">
-        <v>1350</v>
+        <v>6246</v>
       </c>
       <c r="E25" t="n">
-        <v>12.07</v>
+        <v>16.49</v>
       </c>
       <c r="F25" t="n">
-        <v>10.34</v>
+        <v>15.57</v>
       </c>
       <c r="G25" t="n">
-        <v>13.81</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1130,52 +1130,52 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>149</v>
+        <v>739</v>
       </c>
       <c r="D26" t="n">
-        <v>1350</v>
+        <v>6246</v>
       </c>
       <c r="E26" t="n">
-        <v>11.04</v>
+        <v>11.83</v>
       </c>
       <c r="F26" t="n">
-        <v>9.369999999999999</v>
+        <v>11.03</v>
       </c>
       <c r="G26" t="n">
-        <v>12.71</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>140</v>
+        <v>617</v>
       </c>
       <c r="D27" t="n">
-        <v>1350</v>
+        <v>6246</v>
       </c>
       <c r="E27" t="n">
-        <v>10.37</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>8.74</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1184,25 +1184,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>115</v>
+        <v>473</v>
       </c>
       <c r="D28" t="n">
-        <v>1350</v>
+        <v>6246</v>
       </c>
       <c r="E28" t="n">
-        <v>8.52</v>
+        <v>7.57</v>
       </c>
       <c r="F28" t="n">
-        <v>7.03</v>
+        <v>6.92</v>
       </c>
       <c r="G28" t="n">
-        <v>10.01</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1211,160 +1211,160 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>104</v>
+        <v>378</v>
       </c>
       <c r="D29" t="n">
-        <v>1350</v>
+        <v>6246</v>
       </c>
       <c r="E29" t="n">
-        <v>7.7</v>
+        <v>6.05</v>
       </c>
       <c r="F29" t="n">
-        <v>6.28</v>
+        <v>5.46</v>
       </c>
       <c r="G29" t="n">
-        <v>9.130000000000001</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="D30" t="n">
-        <v>1350</v>
+        <v>6246</v>
       </c>
       <c r="E30" t="n">
-        <v>5.19</v>
+        <v>5.73</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>5.16</v>
       </c>
       <c r="G30" t="n">
-        <v>6.37</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="D31" t="n">
-        <v>1350</v>
+        <v>6246</v>
       </c>
       <c r="E31" t="n">
-        <v>4.44</v>
+        <v>3.39</v>
       </c>
       <c r="F31" t="n">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="G31" t="n">
-        <v>5.54</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="D32" t="n">
-        <v>1350</v>
+        <v>6246</v>
       </c>
       <c r="E32" t="n">
-        <v>2.52</v>
+        <v>2.79</v>
       </c>
       <c r="F32" t="n">
-        <v>1.68</v>
+        <v>2.38</v>
       </c>
       <c r="G32" t="n">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Uncodable/Unknown</t>
+          <t>Administrative</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="D33" t="n">
-        <v>1350</v>
+        <v>6246</v>
       </c>
       <c r="E33" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="F33" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="G33" t="n">
-        <v>2.92</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Symptom – Musculoskeletal</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="D34" t="n">
-        <v>1350</v>
+        <v>6246</v>
       </c>
       <c r="E34" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="F34" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="G34" t="n">
-        <v>2.66</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1373,25 +1373,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3354</v>
+        <v>117</v>
       </c>
       <c r="D35" t="n">
-        <v>11309</v>
+        <v>396</v>
       </c>
       <c r="E35" t="n">
-        <v>29.66</v>
+        <v>29.55</v>
       </c>
       <c r="F35" t="n">
-        <v>28.82</v>
+        <v>25.05</v>
       </c>
       <c r="G35" t="n">
-        <v>30.5</v>
+        <v>34.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1400,79 +1400,79 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1581</v>
+        <v>65</v>
       </c>
       <c r="D36" t="n">
-        <v>11309</v>
+        <v>396</v>
       </c>
       <c r="E36" t="n">
-        <v>13.98</v>
+        <v>16.41</v>
       </c>
       <c r="F36" t="n">
-        <v>13.34</v>
+        <v>12.77</v>
       </c>
       <c r="G36" t="n">
-        <v>14.62</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1374</v>
+        <v>46</v>
       </c>
       <c r="D37" t="n">
-        <v>11309</v>
+        <v>396</v>
       </c>
       <c r="E37" t="n">
-        <v>12.15</v>
+        <v>11.62</v>
       </c>
       <c r="F37" t="n">
-        <v>11.55</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>12.75</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1254</v>
+        <v>40</v>
       </c>
       <c r="D38" t="n">
-        <v>11309</v>
+        <v>396</v>
       </c>
       <c r="E38" t="n">
-        <v>11.09</v>
+        <v>10.1</v>
       </c>
       <c r="F38" t="n">
-        <v>10.51</v>
+        <v>7.13</v>
       </c>
       <c r="G38" t="n">
-        <v>11.67</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1481,25 +1481,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1083</v>
+        <v>36</v>
       </c>
       <c r="D39" t="n">
-        <v>11309</v>
+        <v>396</v>
       </c>
       <c r="E39" t="n">
-        <v>9.58</v>
+        <v>9.09</v>
       </c>
       <c r="F39" t="n">
-        <v>9.029999999999999</v>
+        <v>6.26</v>
       </c>
       <c r="G39" t="n">
-        <v>10.12</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1508,25 +1508,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>742</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>11309</v>
+        <v>396</v>
       </c>
       <c r="E40" t="n">
-        <v>6.56</v>
+        <v>7.07</v>
       </c>
       <c r="F40" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="G40" t="n">
-        <v>7.02</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1535,25 +1535,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>623</v>
+        <v>22</v>
       </c>
       <c r="D41" t="n">
-        <v>11309</v>
+        <v>396</v>
       </c>
       <c r="E41" t="n">
-        <v>5.51</v>
+        <v>5.56</v>
       </c>
       <c r="F41" t="n">
-        <v>5.09</v>
+        <v>3.3</v>
       </c>
       <c r="G41" t="n">
-        <v>5.93</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1562,79 +1562,79 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>521</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>11309</v>
+        <v>396</v>
       </c>
       <c r="E42" t="n">
-        <v>4.61</v>
+        <v>3.79</v>
       </c>
       <c r="F42" t="n">
-        <v>4.22</v>
+        <v>1.91</v>
       </c>
       <c r="G42" t="n">
-        <v>4.99</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Administrative</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>288</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>11309</v>
+        <v>396</v>
       </c>
       <c r="E43" t="n">
-        <v>2.55</v>
+        <v>2.27</v>
       </c>
       <c r="F43" t="n">
-        <v>2.26</v>
+        <v>0.8</v>
       </c>
       <c r="G43" t="n">
-        <v>2.84</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Symptom – Musculoskeletal</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="D44" t="n">
-        <v>11309</v>
+        <v>396</v>
       </c>
       <c r="E44" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="F44" t="n">
-        <v>2.02</v>
+        <v>0.8</v>
       </c>
       <c r="G44" t="n">
-        <v>2.58</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1643,19 +1643,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>11309</v>
+        <v>396</v>
       </c>
       <c r="E45" t="n">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="F45" t="n">
-        <v>1.77</v>
+        <v>0.8</v>
       </c>
       <c r="G45" t="n">
-        <v>2.28</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="46">
@@ -1670,19 +1670,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2264</v>
+        <v>1380</v>
       </c>
       <c r="D46" t="n">
-        <v>6244</v>
+        <v>3507</v>
       </c>
       <c r="E46" t="n">
-        <v>36.26</v>
+        <v>39.35</v>
       </c>
       <c r="F46" t="n">
-        <v>35.07</v>
+        <v>37.73</v>
       </c>
       <c r="G46" t="n">
-        <v>37.45</v>
+        <v>40.97</v>
       </c>
     </row>
     <row r="47">
@@ -1697,19 +1697,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>760</v>
+        <v>460</v>
       </c>
       <c r="D47" t="n">
-        <v>6244</v>
+        <v>3507</v>
       </c>
       <c r="E47" t="n">
-        <v>12.17</v>
+        <v>13.12</v>
       </c>
       <c r="F47" t="n">
-        <v>11.36</v>
+        <v>12</v>
       </c>
       <c r="G47" t="n">
-        <v>12.98</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="48">
@@ -1720,23 +1720,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>713</v>
+        <v>419</v>
       </c>
       <c r="D48" t="n">
-        <v>6244</v>
+        <v>3507</v>
       </c>
       <c r="E48" t="n">
-        <v>11.42</v>
+        <v>11.95</v>
       </c>
       <c r="F48" t="n">
-        <v>10.63</v>
+        <v>10.87</v>
       </c>
       <c r="G48" t="n">
-        <v>12.21</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="49">
@@ -1747,23 +1747,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>690</v>
+        <v>323</v>
       </c>
       <c r="D49" t="n">
-        <v>6244</v>
+        <v>3507</v>
       </c>
       <c r="E49" t="n">
-        <v>11.05</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>10.27</v>
+        <v>8.25</v>
       </c>
       <c r="G49" t="n">
-        <v>11.83</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="50">
@@ -1778,19 +1778,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>526</v>
+        <v>291</v>
       </c>
       <c r="D50" t="n">
-        <v>6244</v>
+        <v>3507</v>
       </c>
       <c r="E50" t="n">
-        <v>8.42</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>7.74</v>
+        <v>7.38</v>
       </c>
       <c r="G50" t="n">
-        <v>9.109999999999999</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>409</v>
+        <v>205</v>
       </c>
       <c r="D51" t="n">
-        <v>6244</v>
+        <v>3507</v>
       </c>
       <c r="E51" t="n">
-        <v>6.55</v>
+        <v>5.85</v>
       </c>
       <c r="F51" t="n">
-        <v>5.94</v>
+        <v>5.07</v>
       </c>
       <c r="G51" t="n">
-        <v>7.16</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="52">
@@ -1828,23 +1828,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>309</v>
+        <v>156</v>
       </c>
       <c r="D52" t="n">
-        <v>6244</v>
+        <v>3507</v>
       </c>
       <c r="E52" t="n">
-        <v>4.95</v>
+        <v>4.45</v>
       </c>
       <c r="F52" t="n">
-        <v>4.41</v>
+        <v>3.77</v>
       </c>
       <c r="G52" t="n">
-        <v>5.49</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="53">
@@ -1855,23 +1855,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="D53" t="n">
-        <v>6244</v>
+        <v>3507</v>
       </c>
       <c r="E53" t="n">
-        <v>4.08</v>
+        <v>3.68</v>
       </c>
       <c r="F53" t="n">
-        <v>3.59</v>
+        <v>3.06</v>
       </c>
       <c r="G53" t="n">
-        <v>4.57</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="54">
@@ -1882,23 +1882,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D54" t="n">
-        <v>6244</v>
+        <v>3507</v>
       </c>
       <c r="E54" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="F54" t="n">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="G54" t="n">
-        <v>2.23</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="55">
@@ -1909,23 +1909,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Symptom – Musculoskeletal</t>
+          <t>Administrative</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>6244</v>
+        <v>3507</v>
       </c>
       <c r="E55" t="n">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="F55" t="n">
-        <v>1.54</v>
+        <v>1.13</v>
       </c>
       <c r="G55" t="n">
-        <v>2.21</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="56">
@@ -1936,23 +1936,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Uncodable/Unknown</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>6244</v>
+        <v>3507</v>
       </c>
       <c r="E56" t="n">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>1.05</v>
+        <v>0.62</v>
       </c>
       <c r="G56" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_Hypercapnia_Definition.xlsx
+++ b/Symptom_Composition_by_Hypercapnia_Definition.xlsx
@@ -1067,7 +1067,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1094,7 +1094,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1148,7 +1148,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1175,7 +1175,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1202,7 +1202,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1229,7 +1229,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1256,7 +1256,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1283,7 +1283,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1310,7 +1310,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">

--- a/Symptom_Composition_by_Hypercapnia_Definition.xlsx
+++ b/Symptom_Composition_by_Hypercapnia_Definition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1007</v>
+        <v>2027</v>
       </c>
       <c r="D2" t="n">
-        <v>3512</v>
+        <v>7456</v>
       </c>
       <c r="E2" t="n">
-        <v>28.67</v>
+        <v>27.19</v>
       </c>
       <c r="F2" t="n">
-        <v>27.18</v>
+        <v>26.18</v>
       </c>
       <c r="G2" t="n">
-        <v>30.17</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="3">
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>740</v>
+        <v>1210</v>
       </c>
       <c r="D3" t="n">
-        <v>3512</v>
+        <v>7456</v>
       </c>
       <c r="E3" t="n">
-        <v>21.07</v>
+        <v>16.23</v>
       </c>
       <c r="F3" t="n">
-        <v>19.72</v>
+        <v>15.39</v>
       </c>
       <c r="G3" t="n">
-        <v>22.42</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="4">
@@ -532,23 +532,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>367</v>
+        <v>876</v>
       </c>
       <c r="D4" t="n">
-        <v>3512</v>
+        <v>7456</v>
       </c>
       <c r="E4" t="n">
-        <v>10.45</v>
+        <v>11.75</v>
       </c>
       <c r="F4" t="n">
-        <v>9.44</v>
+        <v>11.02</v>
       </c>
       <c r="G4" t="n">
-        <v>11.46</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="5">
@@ -559,23 +559,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>342</v>
+        <v>763</v>
       </c>
       <c r="D5" t="n">
-        <v>3512</v>
+        <v>7456</v>
       </c>
       <c r="E5" t="n">
-        <v>9.74</v>
+        <v>10.23</v>
       </c>
       <c r="F5" t="n">
-        <v>8.76</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>10.72</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="6">
@@ -586,23 +586,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>240</v>
+        <v>729</v>
       </c>
       <c r="D6" t="n">
-        <v>3512</v>
+        <v>7456</v>
       </c>
       <c r="E6" t="n">
-        <v>6.83</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>9.1</v>
       </c>
       <c r="G6" t="n">
-        <v>7.67</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="7">
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>227</v>
+        <v>484</v>
       </c>
       <c r="D7" t="n">
-        <v>3512</v>
+        <v>7456</v>
       </c>
       <c r="E7" t="n">
-        <v>6.46</v>
+        <v>6.49</v>
       </c>
       <c r="F7" t="n">
-        <v>5.65</v>
+        <v>5.93</v>
       </c>
       <c r="G7" t="n">
-        <v>7.28</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="8">
@@ -640,23 +640,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>196</v>
+        <v>465</v>
       </c>
       <c r="D8" t="n">
-        <v>3512</v>
+        <v>7456</v>
       </c>
       <c r="E8" t="n">
-        <v>5.58</v>
+        <v>6.24</v>
       </c>
       <c r="F8" t="n">
-        <v>4.82</v>
+        <v>5.69</v>
       </c>
       <c r="G8" t="n">
-        <v>6.34</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="9">
@@ -667,23 +667,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Uncodable/Unknown</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>138</v>
+        <v>304</v>
       </c>
       <c r="D9" t="n">
-        <v>3512</v>
+        <v>7456</v>
       </c>
       <c r="E9" t="n">
-        <v>3.93</v>
+        <v>4.08</v>
       </c>
       <c r="F9" t="n">
-        <v>3.29</v>
+        <v>3.63</v>
       </c>
       <c r="G9" t="n">
-        <v>4.57</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="10">
@@ -694,23 +694,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="D10" t="n">
-        <v>3512</v>
+        <v>7456</v>
       </c>
       <c r="E10" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="F10" t="n">
-        <v>2.22</v>
+        <v>2.59</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="11">
@@ -721,23 +721,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Administrative</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="D11" t="n">
-        <v>3512</v>
+        <v>7456</v>
       </c>
       <c r="E11" t="n">
-        <v>2.28</v>
+        <v>2.55</v>
       </c>
       <c r="F11" t="n">
-        <v>1.78</v>
+        <v>2.19</v>
       </c>
       <c r="G11" t="n">
-        <v>2.77</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="12">
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="D12" t="n">
-        <v>3512</v>
+        <v>7456</v>
       </c>
       <c r="E12" t="n">
-        <v>2.22</v>
+        <v>2.49</v>
       </c>
       <c r="F12" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.71</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="13">
@@ -914,19 +914,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D18" t="n">
         <v>1983</v>
       </c>
       <c r="E18" t="n">
-        <v>5.75</v>
+        <v>5.85</v>
       </c>
       <c r="F18" t="n">
-        <v>4.72</v>
+        <v>4.82</v>
       </c>
       <c r="G18" t="n">
-        <v>6.77</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="19">
@@ -991,23 +991,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Administrative</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>1983</v>
       </c>
       <c r="E21" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="F21" t="n">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="22">
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2037</v>
+        <v>2029</v>
       </c>
       <c r="D24" t="n">
-        <v>6246</v>
+        <v>6220</v>
       </c>
       <c r="E24" t="n">
-        <v>32.61</v>
+        <v>32.62</v>
       </c>
       <c r="F24" t="n">
-        <v>31.45</v>
+        <v>31.46</v>
       </c>
       <c r="G24" t="n">
-        <v>33.78</v>
+        <v>33.79</v>
       </c>
     </row>
     <row r="25">
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="D25" t="n">
-        <v>6246</v>
+        <v>6220</v>
       </c>
       <c r="E25" t="n">
-        <v>16.49</v>
+        <v>16.43</v>
       </c>
       <c r="F25" t="n">
-        <v>15.57</v>
+        <v>15.51</v>
       </c>
       <c r="G25" t="n">
-        <v>17.41</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="26">
@@ -1133,16 +1133,16 @@
         <v>739</v>
       </c>
       <c r="D26" t="n">
-        <v>6246</v>
+        <v>6220</v>
       </c>
       <c r="E26" t="n">
-        <v>11.83</v>
+        <v>11.88</v>
       </c>
       <c r="F26" t="n">
-        <v>11.03</v>
+        <v>11.08</v>
       </c>
       <c r="G26" t="n">
-        <v>12.63</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="27">
@@ -1157,19 +1157,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D27" t="n">
-        <v>6246</v>
+        <v>6220</v>
       </c>
       <c r="E27" t="n">
-        <v>9.880000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>9.140000000000001</v>
+        <v>9.15</v>
       </c>
       <c r="G27" t="n">
-        <v>10.62</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="28">
@@ -1184,19 +1184,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D28" t="n">
-        <v>6246</v>
+        <v>6220</v>
       </c>
       <c r="E28" t="n">
-        <v>7.57</v>
+        <v>7.59</v>
       </c>
       <c r="F28" t="n">
-        <v>6.92</v>
+        <v>6.93</v>
       </c>
       <c r="G28" t="n">
-        <v>8.23</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="29">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="D29" t="n">
-        <v>6246</v>
+        <v>6220</v>
       </c>
       <c r="E29" t="n">
-        <v>6.05</v>
+        <v>6.4</v>
       </c>
       <c r="F29" t="n">
-        <v>5.46</v>
+        <v>5.79</v>
       </c>
       <c r="G29" t="n">
-        <v>6.64</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="30">
@@ -1238,19 +1238,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D30" t="n">
-        <v>6246</v>
+        <v>6220</v>
       </c>
       <c r="E30" t="n">
-        <v>5.73</v>
+        <v>5.74</v>
       </c>
       <c r="F30" t="n">
         <v>5.16</v>
       </c>
       <c r="G30" t="n">
-        <v>6.31</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="31">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D31" t="n">
-        <v>6246</v>
+        <v>6220</v>
       </c>
       <c r="E31" t="n">
         <v>3.39</v>
       </c>
       <c r="F31" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="G31" t="n">
         <v>3.84</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" t="n">
-        <v>6246</v>
+        <v>6220</v>
       </c>
       <c r="E32" t="n">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="F32" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G32" t="n">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="33">
@@ -1315,23 +1315,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Administrative</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D33" t="n">
-        <v>6246</v>
+        <v>6220</v>
       </c>
       <c r="E33" t="n">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="F33" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="G33" t="n">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="34">
@@ -1342,29 +1342,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D34" t="n">
-        <v>6246</v>
+        <v>6220</v>
       </c>
       <c r="E34" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="F34" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="G34" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>unknown_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1373,25 +1373,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>117</v>
+        <v>3404</v>
       </c>
       <c r="D35" t="n">
-        <v>396</v>
+        <v>11504</v>
       </c>
       <c r="E35" t="n">
-        <v>29.55</v>
+        <v>29.59</v>
       </c>
       <c r="F35" t="n">
-        <v>25.05</v>
+        <v>28.76</v>
       </c>
       <c r="G35" t="n">
-        <v>34.04</v>
+        <v>30.42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>unknown_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1400,79 +1400,79 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>65</v>
+        <v>1637</v>
       </c>
       <c r="D36" t="n">
-        <v>396</v>
+        <v>11504</v>
       </c>
       <c r="E36" t="n">
-        <v>16.41</v>
+        <v>14.23</v>
       </c>
       <c r="F36" t="n">
-        <v>12.77</v>
+        <v>13.59</v>
       </c>
       <c r="G36" t="n">
-        <v>20.06</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>unknown_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>46</v>
+        <v>1373</v>
       </c>
       <c r="D37" t="n">
-        <v>396</v>
+        <v>11504</v>
       </c>
       <c r="E37" t="n">
-        <v>11.62</v>
+        <v>11.93</v>
       </c>
       <c r="F37" t="n">
-        <v>8.460000000000001</v>
+        <v>11.34</v>
       </c>
       <c r="G37" t="n">
-        <v>14.77</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>unknown_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>1285</v>
       </c>
       <c r="D38" t="n">
-        <v>396</v>
+        <v>11504</v>
       </c>
       <c r="E38" t="n">
-        <v>10.1</v>
+        <v>11.17</v>
       </c>
       <c r="F38" t="n">
-        <v>7.13</v>
+        <v>10.59</v>
       </c>
       <c r="G38" t="n">
-        <v>13.07</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>unknown_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1481,25 +1481,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>36</v>
+        <v>1097</v>
       </c>
       <c r="D39" t="n">
-        <v>396</v>
+        <v>11504</v>
       </c>
       <c r="E39" t="n">
-        <v>9.09</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>6.26</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>11.92</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>unknown_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1508,25 +1508,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>768</v>
       </c>
       <c r="D40" t="n">
-        <v>396</v>
+        <v>11504</v>
       </c>
       <c r="E40" t="n">
-        <v>7.07</v>
+        <v>6.68</v>
       </c>
       <c r="F40" t="n">
-        <v>4.55</v>
+        <v>6.22</v>
       </c>
       <c r="G40" t="n">
-        <v>9.6</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>unknown_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1535,25 +1535,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>22</v>
+        <v>639</v>
       </c>
       <c r="D41" t="n">
-        <v>396</v>
+        <v>11504</v>
       </c>
       <c r="E41" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="F41" t="n">
-        <v>3.3</v>
+        <v>5.14</v>
       </c>
       <c r="G41" t="n">
-        <v>7.81</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>unknown_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1562,106 +1562,106 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>520</v>
       </c>
       <c r="D42" t="n">
-        <v>396</v>
+        <v>11504</v>
       </c>
       <c r="E42" t="n">
-        <v>3.79</v>
+        <v>4.52</v>
       </c>
       <c r="F42" t="n">
-        <v>1.91</v>
+        <v>4.14</v>
       </c>
       <c r="G42" t="n">
-        <v>5.67</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>unknown_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Administrative</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="D43" t="n">
-        <v>396</v>
+        <v>11504</v>
       </c>
       <c r="E43" t="n">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8</v>
+        <v>2.02</v>
       </c>
       <c r="G43" t="n">
-        <v>3.74</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>unknown_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="D44" t="n">
-        <v>396</v>
+        <v>11504</v>
       </c>
       <c r="E44" t="n">
         <v>2.27</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>3.74</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>unknown_hypercap_threshold</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Uncodable/Unknown</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="D45" t="n">
-        <v>396</v>
+        <v>11504</v>
       </c>
       <c r="E45" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8</v>
+        <v>1.96</v>
       </c>
       <c r="G45" t="n">
-        <v>3.74</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1670,106 +1670,106 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1380</v>
+        <v>459</v>
       </c>
       <c r="D46" t="n">
-        <v>3507</v>
+        <v>1347</v>
       </c>
       <c r="E46" t="n">
-        <v>39.35</v>
+        <v>34.08</v>
       </c>
       <c r="F46" t="n">
-        <v>37.73</v>
+        <v>31.54</v>
       </c>
       <c r="G46" t="n">
-        <v>40.97</v>
+        <v>36.61</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>460</v>
+        <v>164</v>
       </c>
       <c r="D47" t="n">
-        <v>3507</v>
+        <v>1347</v>
       </c>
       <c r="E47" t="n">
-        <v>13.12</v>
+        <v>12.18</v>
       </c>
       <c r="F47" t="n">
-        <v>12</v>
+        <v>10.43</v>
       </c>
       <c r="G47" t="n">
-        <v>14.23</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>419</v>
+        <v>149</v>
       </c>
       <c r="D48" t="n">
-        <v>3507</v>
+        <v>1347</v>
       </c>
       <c r="E48" t="n">
-        <v>11.95</v>
+        <v>11.06</v>
       </c>
       <c r="F48" t="n">
-        <v>10.87</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>13.02</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>323</v>
+        <v>140</v>
       </c>
       <c r="D49" t="n">
-        <v>3507</v>
+        <v>1347</v>
       </c>
       <c r="E49" t="n">
-        <v>9.210000000000001</v>
+        <v>10.39</v>
       </c>
       <c r="F49" t="n">
-        <v>8.25</v>
+        <v>8.76</v>
       </c>
       <c r="G49" t="n">
-        <v>10.17</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1778,25 +1778,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>291</v>
+        <v>115</v>
       </c>
       <c r="D50" t="n">
-        <v>3507</v>
+        <v>1347</v>
       </c>
       <c r="E50" t="n">
-        <v>8.300000000000001</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>7.38</v>
+        <v>7.05</v>
       </c>
       <c r="G50" t="n">
-        <v>9.210000000000001</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1805,154 +1805,451 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="D51" t="n">
-        <v>3507</v>
+        <v>1347</v>
       </c>
       <c r="E51" t="n">
-        <v>5.85</v>
+        <v>7.57</v>
       </c>
       <c r="F51" t="n">
-        <v>5.07</v>
+        <v>6.16</v>
       </c>
       <c r="G51" t="n">
-        <v>6.62</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="D52" t="n">
-        <v>3507</v>
+        <v>1347</v>
       </c>
       <c r="E52" t="n">
-        <v>4.45</v>
+        <v>5.12</v>
       </c>
       <c r="F52" t="n">
-        <v>3.77</v>
+        <v>3.95</v>
       </c>
       <c r="G52" t="n">
-        <v>5.13</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="D53" t="n">
-        <v>3507</v>
+        <v>1347</v>
       </c>
       <c r="E53" t="n">
-        <v>3.68</v>
+        <v>4.45</v>
       </c>
       <c r="F53" t="n">
-        <v>3.06</v>
+        <v>3.35</v>
       </c>
       <c r="G53" t="n">
-        <v>4.3</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Uncodable/Unknown</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
-        <v>3507</v>
+        <v>1347</v>
       </c>
       <c r="E54" t="n">
-        <v>1.63</v>
+        <v>2.52</v>
       </c>
       <c r="F54" t="n">
-        <v>1.21</v>
+        <v>1.69</v>
       </c>
       <c r="G54" t="n">
-        <v>2.04</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Administrative</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
-        <v>3507</v>
+        <v>1347</v>
       </c>
       <c r="E55" t="n">
-        <v>1.54</v>
+        <v>2.15</v>
       </c>
       <c r="F55" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="G55" t="n">
-        <v>1.95</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>unknown_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Symptom – Musculoskeletal</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>26</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1347</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>vbg_hypercap_threshold</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Symptom – Respiratory</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2304</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6391</v>
+      </c>
+      <c r="E57" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="F57" t="n">
+        <v>34.87</v>
+      </c>
+      <c r="G57" t="n">
+        <v>37.23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Symptom – Nervous</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>784</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6391</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="F58" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="G58" t="n">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Injuries &amp; adverse effects</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>731</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6391</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="G59" t="n">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Symptom – Digestive</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>716</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6391</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="G60" t="n">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Symptom – Circulatory</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>539</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6391</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>424</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6391</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="G62" t="n">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Symptom – General</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>308</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6391</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Diseases (patient-stated)</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>269</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6391</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Symptom – Musculoskeletal</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>118</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6391</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>33</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3507</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.26</v>
+      <c r="C66" t="n">
+        <v>101</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6391</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Uncodable/Unknown</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>97</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6391</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>
